--- a/Fig_4.xlsx
+++ b/Fig_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/chatterjee_b_ufl_edu/Documents/Baibhab_Chatterjee/Journals/2023/Nature_Electronics/0_Final_Version_Accepted/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/chatterjee_b_ufl_edu/Documents/Baibhab_Chatterjee/Journals/2023/Nature_Electronics/0_Final_Version_Accepted/Final_Submission_Packet/Data_for_Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1337" documentId="8_{02306404-C4FE-46F7-AC97-BAD505FCA45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D5A8540-E35F-44AA-B9E2-CC8E1BE8DD17}"/>
+  <xr:revisionPtr revIDLastSave="1343" documentId="8_{02306404-C4FE-46F7-AC97-BAD505FCA45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80F4AB9D-E244-481E-9B99-A2FB8EACAADA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="842" activeTab="5" xr2:uid="{719B1F20-A5A5-4405-B36F-D8E89121D272}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="842" activeTab="5" xr2:uid="{719B1F20-A5A5-4405-B36F-D8E89121D272}"/>
   </bookViews>
   <sheets>
     <sheet name="rAB1_rep5" sheetId="21" r:id="rId1"/>
@@ -2736,166 +2736,166 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>2.5000000000000004</c:v>
+                  <c:v>1.2999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5000000000000009</c:v>
+                  <c:v>3.2999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5000000000000009</c:v>
+                  <c:v>5.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5</c:v>
+                  <c:v>7.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.5</c:v>
+                  <c:v>9.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.5</c:v>
+                  <c:v>11.299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.5</c:v>
+                  <c:v>13.299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.5</c:v>
+                  <c:v>15.299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.500000000000004</c:v>
+                  <c:v>17.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.500000000000004</c:v>
+                  <c:v>19.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.500000000000007</c:v>
+                  <c:v>21.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.500000000000007</c:v>
+                  <c:v>23.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.500000000000011</c:v>
+                  <c:v>25.300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.500000000000011</c:v>
+                  <c:v>27.300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.500000000000014</c:v>
+                  <c:v>29.300000000000008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.500000000000014</c:v>
+                  <c:v>31.300000000000008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.500000000000014</c:v>
+                  <c:v>33.300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.500000000000021</c:v>
+                  <c:v>35.300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.500000000000021</c:v>
+                  <c:v>37.300000000000011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40.500000000000021</c:v>
+                  <c:v>39.300000000000018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42.500000000000021</c:v>
+                  <c:v>41.300000000000018</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44.500000000000028</c:v>
+                  <c:v>43.300000000000018</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46.500000000000028</c:v>
+                  <c:v>45.300000000000018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48.500000000000028</c:v>
+                  <c:v>47.300000000000026</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50.500000000000028</c:v>
+                  <c:v>49.300000000000026</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52.500000000000036</c:v>
+                  <c:v>51.300000000000026</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54.500000000000036</c:v>
+                  <c:v>53.300000000000026</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56.500000000000036</c:v>
+                  <c:v>55.300000000000033</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58.500000000000036</c:v>
+                  <c:v>57.300000000000033</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60.500000000000043</c:v>
+                  <c:v>59.300000000000033</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62.500000000000043</c:v>
+                  <c:v>61.300000000000033</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64.500000000000043</c:v>
+                  <c:v>63.30000000000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66.500000000000043</c:v>
+                  <c:v>65.30000000000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68.500000000000043</c:v>
+                  <c:v>67.30000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70.500000000000043</c:v>
+                  <c:v>69.30000000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72.500000000000057</c:v>
+                  <c:v>71.30000000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74.500000000000057</c:v>
+                  <c:v>73.30000000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76.500000000000057</c:v>
+                  <c:v>75.300000000000054</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78.500000000000057</c:v>
+                  <c:v>77.300000000000054</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80.500000000000057</c:v>
+                  <c:v>79.300000000000054</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82.500000000000057</c:v>
+                  <c:v>81.300000000000054</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>84.500000000000057</c:v>
+                  <c:v>83.300000000000054</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86.500000000000057</c:v>
+                  <c:v>85.300000000000054</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>88.500000000000071</c:v>
+                  <c:v>87.300000000000054</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>90.500000000000071</c:v>
+                  <c:v>89.300000000000054</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>92.500000000000071</c:v>
+                  <c:v>91.300000000000068</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>94.500000000000071</c:v>
+                  <c:v>93.300000000000068</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>96.500000000000071</c:v>
+                  <c:v>95.300000000000068</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>98.500000000000071</c:v>
+                  <c:v>97.300000000000068</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100.50000000000007</c:v>
+                  <c:v>99.300000000000068</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>102.50000000000007</c:v>
+                  <c:v>101.30000000000007</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>104.50000000000009</c:v>
+                  <c:v>103.30000000000007</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>106.50000000000009</c:v>
+                  <c:v>105.30000000000007</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>108.50000000000009</c:v>
+                  <c:v>107.30000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2907,163 +2907,163 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="1">
-                  <c:v>-1.8688903127606076</c:v>
+                  <c:v>-4.1750023649603909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.812050939604989</c:v>
+                  <c:v>-13.57845026024707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-16.516765509219976</c:v>
+                  <c:v>-19.528718699069948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-20.758543755763981</c:v>
+                  <c:v>-23.923219818799978</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-24.147757358897337</c:v>
+                  <c:v>-27.416613257217715</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-26.974340414826731</c:v>
+                  <c:v>-30.318808452336377</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-29.40042945389084</c:v>
+                  <c:v>-32.802277648140141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-31.526361984935672</c:v>
+                  <c:v>-34.97324405654274</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-33.418726309505104</c:v>
+                  <c:v>-36.901894134721353</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-35.124046946392077</c:v>
+                  <c:v>-38.637076046015146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-36.676144102645473</c:v>
+                  <c:v>-40.214177579775495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-38.100390430172467</c:v>
+                  <c:v>-41.659667304349803</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-39.416317230156096</c:v>
+                  <c:v>-42.993865769526344</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-40.639284816290441</c:v>
+                  <c:v>-44.232716129710141</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-41.781594204711602</c:v>
+                  <c:v>-45.388959172032671</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-42.853250766164244</c:v>
+                  <c:v>-46.472938331243611</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-43.862503134945612</c:v>
+                  <c:v>-47.493166395231192</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-44.816232468636336</c:v>
+                  <c:v>-48.456733917302714</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-45.72023937949151</c:v>
+                  <c:v>-49.369609637748376</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-46.57945925091159</c:v>
+                  <c:v>-50.23686548951553</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-47.3981263962255</c:v>
+                  <c:v>-51.062847838662634</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-48.179901001198708</c:v>
+                  <c:v>-51.851309684569031</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-48.927968546962376</c:v>
+                  <c:v>-52.605514042131261</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-49.645118582231063</c:v>
+                  <c:v>-53.328315734134897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-50.333807791496739</c:v>
+                  <c:v>-54.022226790488432</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-50.996210975341455</c:v>
+                  <c:v>-54.689469247186494</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-51.634262622669773</c:v>
+                  <c:v>-55.332018151563389</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-52.249691085727498</c:v>
+                  <c:v>-55.95163687684456</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-52.8440468842347</c:v>
+                  <c:v>-56.549906340138008</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-53.418726309505104</c:v>
+                  <c:v>-57.128249345212048</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-53.974991235582799</c:v>
+                  <c:v>-57.687950995064881</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-54.513985846454879</c:v>
+                  <c:v>-58.230175912194483</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-55.036750838343082</c:v>
+                  <c:v>-58.755982847689687</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-55.544235541266829</c:v>
+                  <c:v>-59.266337140443596</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-56.037308315454872</c:v>
+                  <c:v>-59.762121395400641</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-56.516765509219979</c:v>
+                  <c:v>-60.244144677928652</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-56.983339210829783</c:v>
+                  <c:v>-60.713150465134248</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-57.437703984185269</c:v>
+                  <c:v>-61.169823550535497</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-57.880482744143194</c:v>
+                  <c:v>-61.614796063215579</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-58.31225190012097</c:v>
+                  <c:v>-62.048652734362648</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-58.733545874720804</c:v>
+                  <c:v>-62.471935521390087</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-59.144861086370625</c:v>
+                  <c:v>-62.885147681454612</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-59.546659470530201</c:v>
+                  <c:v>-63.28875737123046</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-59.939371602185815</c:v>
+                  <c:v>-63.683200837564904</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-60.323399472625795</c:v>
+                  <c:v>-64.068885253581826</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-60.699118965448676</c:v>
+                  <c:v>-64.446191246491381</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-61.066882070079451</c:v>
+                  <c:v>-64.815475156472942</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-61.427018865502973</c:v>
+                  <c:v>-65.177071060253112</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-61.779839302263355</c:v>
+                  <c:v>-65.531292588197161</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-62.125634806864021</c:v>
+                  <c:v>-65.878434559696601</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-62.464679729397751</c:v>
+                  <c:v>-66.218774458231181</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-62.797232652440428</c:v>
+                  <c:v>-66.552573764607331</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-63.123537576868465</c:v>
+                  <c:v>-66.880079164429219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3108,169 +3108,169 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1.1999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0148296296296202</c:v>
+                  <c:v>3.2148296296296199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0296592592592599</c:v>
+                  <c:v>5.2296592592592592</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0444888888888801</c:v>
+                  <c:v>7.2444888888888794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.05931851851852</c:v>
+                  <c:v>9.2593185185185192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.07414814814814</c:v>
+                  <c:v>11.274148148148139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.08897777777778</c:v>
+                  <c:v>13.288977777777779</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.103807407407402</c:v>
+                  <c:v>15.303807407407399</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.11863703703704</c:v>
+                  <c:v>17.318637037037039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.13346666666666</c:v>
+                  <c:v>19.333466666666659</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.148296296296198</c:v>
+                  <c:v>21.348296296296198</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.163125925926</c:v>
+                  <c:v>23.363125925925999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.177955555555599</c:v>
+                  <c:v>25.377955555555598</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.192785185185201</c:v>
+                  <c:v>27.3927851851852</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.2076148148148</c:v>
+                  <c:v>29.407614814814799</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.222444444444399</c:v>
+                  <c:v>31.422444444444398</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.237274074074001</c:v>
+                  <c:v>33.437274074074004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.252103703703597</c:v>
+                  <c:v>35.4521037037036</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.266933333333398</c:v>
+                  <c:v>37.466933333333401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40.281762962963001</c:v>
+                  <c:v>39.481762962963003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42.296592592592603</c:v>
+                  <c:v>41.496592592592606</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44.311422222222198</c:v>
+                  <c:v>43.511422222222201</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46.326251851851801</c:v>
+                  <c:v>45.526251851851804</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48.341081481481403</c:v>
+                  <c:v>47.541081481481406</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50.355911111111197</c:v>
+                  <c:v>49.5559111111112</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52.3707407407408</c:v>
+                  <c:v>51.570740740740803</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54.385570370370402</c:v>
+                  <c:v>53.585570370370405</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56.400399999999998</c:v>
+                  <c:v>55.6004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58.4152296296296</c:v>
+                  <c:v>57.615229629629603</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60.430059259259203</c:v>
+                  <c:v>59.630059259259205</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62.444888888888798</c:v>
+                  <c:v>61.644888888888801</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64.459718518518599</c:v>
+                  <c:v>63.659718518518602</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66.474548148148202</c:v>
+                  <c:v>65.674548148148205</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68.489377777777804</c:v>
+                  <c:v>67.689377777777807</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70.504207407407407</c:v>
+                  <c:v>69.704207407407409</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72.519037037036995</c:v>
+                  <c:v>71.719037037036998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74.533866666666597</c:v>
+                  <c:v>73.7338666666666</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76.5486962962962</c:v>
+                  <c:v>75.748696296296202</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78.563525925926001</c:v>
+                  <c:v>77.763525925926004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80.578355555555603</c:v>
+                  <c:v>79.778355555555606</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82.593185185185206</c:v>
+                  <c:v>81.793185185185209</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>84.608014814814794</c:v>
+                  <c:v>83.808014814814797</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86.622844444444397</c:v>
+                  <c:v>85.822844444444399</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>88.637674074073999</c:v>
+                  <c:v>87.837674074074002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>90.6525037037038</c:v>
+                  <c:v>89.852503703703803</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>92.667333333333403</c:v>
+                  <c:v>91.867333333333406</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>94.682162962963005</c:v>
+                  <c:v>93.882162962963008</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>96.696992592592593</c:v>
+                  <c:v>95.896992592592596</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>98.711822222222196</c:v>
+                  <c:v>97.911822222222199</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100.7266518518518</c:v>
+                  <c:v>99.926651851851801</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>102.7414814814814</c:v>
+                  <c:v>101.9414814814814</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>104.7563111111112</c:v>
+                  <c:v>103.95631111111121</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>106.7711407407408</c:v>
+                  <c:v>105.97114074074081</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>108.78597037037041</c:v>
+                  <c:v>107.98597037037041</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>110.8008</c:v>
+                  <c:v>110.0008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3908,166 +3908,166 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>1.2500000000000002</c:v>
+                  <c:v>0.6499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2500000000000004</c:v>
+                  <c:v>1.6499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2500000000000004</c:v>
+                  <c:v>2.6499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.25</c:v>
+                  <c:v>3.6499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.25</c:v>
+                  <c:v>4.6499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.25</c:v>
+                  <c:v>5.6499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.25</c:v>
+                  <c:v>6.6499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.25</c:v>
+                  <c:v>7.6499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.2500000000000018</c:v>
+                  <c:v>8.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.250000000000002</c:v>
+                  <c:v>9.6499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.250000000000004</c:v>
+                  <c:v>10.65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.250000000000004</c:v>
+                  <c:v>11.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.250000000000005</c:v>
+                  <c:v>12.650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.250000000000005</c:v>
+                  <c:v>13.650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.250000000000007</c:v>
+                  <c:v>14.650000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.250000000000007</c:v>
+                  <c:v>15.650000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.250000000000007</c:v>
+                  <c:v>16.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.250000000000011</c:v>
+                  <c:v>17.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.250000000000011</c:v>
+                  <c:v>18.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.250000000000011</c:v>
+                  <c:v>19.650000000000009</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.250000000000011</c:v>
+                  <c:v>20.650000000000009</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.250000000000014</c:v>
+                  <c:v>21.650000000000009</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.250000000000014</c:v>
+                  <c:v>22.650000000000009</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.250000000000014</c:v>
+                  <c:v>23.650000000000013</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.250000000000014</c:v>
+                  <c:v>24.650000000000013</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.250000000000018</c:v>
+                  <c:v>25.650000000000013</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.250000000000018</c:v>
+                  <c:v>26.650000000000013</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.250000000000018</c:v>
+                  <c:v>27.650000000000016</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.250000000000018</c:v>
+                  <c:v>28.650000000000016</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.250000000000021</c:v>
+                  <c:v>29.650000000000016</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.250000000000021</c:v>
+                  <c:v>30.650000000000016</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.250000000000021</c:v>
+                  <c:v>31.65000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.250000000000021</c:v>
+                  <c:v>32.65000000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.250000000000021</c:v>
+                  <c:v>33.65000000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.250000000000021</c:v>
+                  <c:v>34.65000000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.250000000000028</c:v>
+                  <c:v>35.65000000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.250000000000028</c:v>
+                  <c:v>36.65000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.250000000000028</c:v>
+                  <c:v>37.650000000000027</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.250000000000028</c:v>
+                  <c:v>38.650000000000027</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.250000000000028</c:v>
+                  <c:v>39.650000000000027</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.250000000000028</c:v>
+                  <c:v>40.650000000000027</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.250000000000028</c:v>
+                  <c:v>41.650000000000027</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.250000000000028</c:v>
+                  <c:v>42.650000000000027</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.250000000000036</c:v>
+                  <c:v>43.650000000000027</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.250000000000036</c:v>
+                  <c:v>44.650000000000027</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.250000000000036</c:v>
+                  <c:v>45.650000000000034</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.250000000000036</c:v>
+                  <c:v>46.650000000000034</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.250000000000036</c:v>
+                  <c:v>47.650000000000034</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.250000000000036</c:v>
+                  <c:v>48.650000000000034</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.250000000000036</c:v>
+                  <c:v>49.650000000000034</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51.250000000000036</c:v>
+                  <c:v>50.650000000000034</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52.250000000000043</c:v>
+                  <c:v>51.650000000000034</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53.250000000000043</c:v>
+                  <c:v>52.650000000000034</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54.250000000000043</c:v>
+                  <c:v>53.650000000000041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4079,163 +4079,163 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="1">
-                  <c:v>-1.8688903127606076</c:v>
+                  <c:v>-4.1750023649603909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.812050939604989</c:v>
+                  <c:v>-13.57845026024707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-16.516765509219976</c:v>
+                  <c:v>-19.528718699069948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-20.758543755763981</c:v>
+                  <c:v>-23.923219818799978</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-24.147757358897337</c:v>
+                  <c:v>-27.416613257217715</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-26.974340414826731</c:v>
+                  <c:v>-30.318808452336377</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-29.40042945389084</c:v>
+                  <c:v>-32.802277648140141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-31.526361984935672</c:v>
+                  <c:v>-34.97324405654274</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-33.418726309505104</c:v>
+                  <c:v>-36.901894134721353</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-35.124046946392077</c:v>
+                  <c:v>-38.637076046015146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-36.676144102645473</c:v>
+                  <c:v>-40.214177579775495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-38.100390430172467</c:v>
+                  <c:v>-41.659667304349803</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-39.416317230156096</c:v>
+                  <c:v>-42.993865769526344</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-40.639284816290441</c:v>
+                  <c:v>-44.232716129710141</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-41.781594204711602</c:v>
+                  <c:v>-45.388959172032671</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-42.853250766164244</c:v>
+                  <c:v>-46.472938331243611</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-43.862503134945612</c:v>
+                  <c:v>-47.493166395231192</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-44.816232468636336</c:v>
+                  <c:v>-48.456733917302714</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-45.72023937949151</c:v>
+                  <c:v>-49.369609637748376</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-46.57945925091159</c:v>
+                  <c:v>-50.23686548951553</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-47.3981263962255</c:v>
+                  <c:v>-51.062847838662634</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-48.179901001198708</c:v>
+                  <c:v>-51.851309684569031</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-48.927968546962376</c:v>
+                  <c:v>-52.605514042131261</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-49.645118582231063</c:v>
+                  <c:v>-53.328315734134897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-50.333807791496739</c:v>
+                  <c:v>-54.022226790488432</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-50.996210975341455</c:v>
+                  <c:v>-54.689469247186494</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-51.634262622669773</c:v>
+                  <c:v>-55.332018151563389</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-52.249691085727498</c:v>
+                  <c:v>-55.95163687684456</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-52.8440468842347</c:v>
+                  <c:v>-56.549906340138008</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-53.418726309505104</c:v>
+                  <c:v>-57.128249345212048</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-53.974991235582799</c:v>
+                  <c:v>-57.687950995064881</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-54.513985846454879</c:v>
+                  <c:v>-58.230175912194483</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-55.036750838343082</c:v>
+                  <c:v>-58.755982847689687</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-55.544235541266829</c:v>
+                  <c:v>-59.266337140443596</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-56.037308315454872</c:v>
+                  <c:v>-59.762121395400641</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-56.516765509219979</c:v>
+                  <c:v>-60.244144677928652</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-56.983339210829783</c:v>
+                  <c:v>-60.713150465134248</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-57.437703984185269</c:v>
+                  <c:v>-61.169823550535497</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-57.880482744143194</c:v>
+                  <c:v>-61.614796063215579</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-58.31225190012097</c:v>
+                  <c:v>-62.048652734362648</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-58.733545874720804</c:v>
+                  <c:v>-62.471935521390087</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-59.144861086370625</c:v>
+                  <c:v>-62.885147681454612</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-59.546659470530201</c:v>
+                  <c:v>-63.28875737123046</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-59.939371602185815</c:v>
+                  <c:v>-63.683200837564904</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-60.323399472625795</c:v>
+                  <c:v>-64.068885253581826</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-60.699118965448676</c:v>
+                  <c:v>-64.446191246491381</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-61.066882070079451</c:v>
+                  <c:v>-64.815475156472942</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-61.427018865502973</c:v>
+                  <c:v>-65.177071060253112</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-61.779839302263355</c:v>
+                  <c:v>-65.531292588197161</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-62.125634806864021</c:v>
+                  <c:v>-65.878434559696601</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-62.464679729397751</c:v>
+                  <c:v>-66.218774458231181</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-62.797232652440428</c:v>
+                  <c:v>-66.552573764607331</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-63.123537576868465</c:v>
+                  <c:v>-66.880079164429219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4280,169 +4280,169 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.59999999999999987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0074148148148101</c:v>
+                  <c:v>1.60741481481481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.01482962962963</c:v>
+                  <c:v>2.6148296296296296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0222444444444401</c:v>
+                  <c:v>3.6222444444444397</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0296592592592599</c:v>
+                  <c:v>4.6296592592592596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.03707407407407</c:v>
+                  <c:v>5.6370740740740697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0444888888888899</c:v>
+                  <c:v>6.6444888888888896</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0519037037037009</c:v>
+                  <c:v>7.6519037037036997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0593185185185199</c:v>
+                  <c:v>8.6593185185185195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.06673333333333</c:v>
+                  <c:v>9.6667333333333296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.074148148148099</c:v>
+                  <c:v>10.674148148148099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.081562962963</c:v>
+                  <c:v>11.681562962963</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.088977777777799</c:v>
+                  <c:v>12.688977777777799</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.096392592592601</c:v>
+                  <c:v>13.6963925925926</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.1038074074074</c:v>
+                  <c:v>14.7038074074074</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.111222222222199</c:v>
+                  <c:v>15.711222222222199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.118637037037001</c:v>
+                  <c:v>16.718637037037002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.126051851851798</c:v>
+                  <c:v>17.7260518518518</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.133466666666699</c:v>
+                  <c:v>18.7334666666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.1408814814815</c:v>
+                  <c:v>19.740881481481502</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.148296296296301</c:v>
+                  <c:v>20.748296296296303</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.155711111111099</c:v>
+                  <c:v>21.755711111111101</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.1631259259259</c:v>
+                  <c:v>22.763125925925902</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.170540740740702</c:v>
+                  <c:v>23.770540740740703</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.177955555555599</c:v>
+                  <c:v>24.7779555555556</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.1853703703704</c:v>
+                  <c:v>25.785370370370401</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.192785185185201</c:v>
+                  <c:v>26.792785185185203</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.200199999999999</c:v>
+                  <c:v>27.8002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.2076148148148</c:v>
+                  <c:v>28.807614814814801</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.215029629629601</c:v>
+                  <c:v>29.815029629629603</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.222444444444399</c:v>
+                  <c:v>30.8224444444444</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.2298592592593</c:v>
+                  <c:v>31.829859259259301</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.237274074074101</c:v>
+                  <c:v>32.837274074074102</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.244688888888902</c:v>
+                  <c:v>33.844688888888903</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35.252103703703703</c:v>
+                  <c:v>34.852103703703705</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36.259518518518497</c:v>
+                  <c:v>35.859518518518499</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37.266933333333299</c:v>
+                  <c:v>36.8669333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38.2743481481481</c:v>
+                  <c:v>37.874348148148101</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39.281762962963001</c:v>
+                  <c:v>38.881762962963002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.289177777777802</c:v>
+                  <c:v>39.889177777777803</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.296592592592603</c:v>
+                  <c:v>40.896592592592604</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42.304007407407397</c:v>
+                  <c:v>41.904007407407398</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43.311422222222198</c:v>
+                  <c:v>42.9114222222222</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44.318837037037</c:v>
+                  <c:v>43.918837037037001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.3262518518519</c:v>
+                  <c:v>44.926251851851902</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.333666666666701</c:v>
+                  <c:v>45.933666666666703</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47.341081481481503</c:v>
+                  <c:v>46.941081481481504</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48.348496296296297</c:v>
+                  <c:v>47.948496296296298</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.355911111111098</c:v>
+                  <c:v>48.955911111111099</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50.363325925925899</c:v>
+                  <c:v>49.963325925925901</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51.3707407407407</c:v>
+                  <c:v>50.970740740740702</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52.378155555555601</c:v>
+                  <c:v>51.978155555555603</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53.385570370370402</c:v>
+                  <c:v>52.985570370370404</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54.392985185185204</c:v>
+                  <c:v>53.992985185185205</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55.400399999999998</c:v>
+                  <c:v>55.000399999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23331,7 +23331,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>: 0.5 mm</a:t>
+              <a:t>: 0.25 mm</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -23557,7 +23557,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>: 0.5 mm</a:t>
+              <a:t>: 0.25 mm</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -41358,7 +41358,7 @@
   <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33:N35"/>
+      <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44962,7 +44962,7 @@
   <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O41" sqref="N41:O41"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45018,7 +45018,7 @@
       </c>
       <c r="Q1" s="3">
         <f>$Q$27/1000</f>
-        <v>2.5000000000000001E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>0</v>
@@ -45043,35 +45043,35 @@
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>$Q$5+$Q$1+$Q$2+$Q$3+$Q$4</f>
-        <v>2.5000000000000005E-3</v>
+        <v>1.2999999999999995E-3</v>
       </c>
       <c r="B2">
         <f>$A2/2-$Q$5/2-$Q$1-$Q$3+$Q$8</f>
-        <v>2.1684043449710089E-19</v>
+        <v>-1.7618285302889447E-19</v>
       </c>
       <c r="C2">
         <f>$A2/2-$Q$5/2-$Q$2-$Q$4-$Q$8</f>
-        <v>2.1684043449710089E-19</v>
+        <v>-1.7618285302889447E-19</v>
       </c>
       <c r="D2">
         <f>$A2/2+$Q$5/2-$Q$1-$Q$4-$Q$8</f>
-        <v>1.5E-3</v>
+        <v>1.0999999999999998E-3</v>
       </c>
       <c r="E2">
         <f>$A2/2+$Q$5/2-$Q$2-$Q$3+$Q$8</f>
-        <v>1.5E-3</v>
+        <v>1.0999999999999998E-3</v>
       </c>
       <c r="F2" s="4">
         <f>$Q$24*(1/($Q$1)-1/($Q$5-$Q$1)-1/($Q$5-$Q$2)+1/($Q$2))</f>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I33" si="0">A2*1000/2</f>
-        <v>1.2500000000000002</v>
+        <v>0.6499999999999998</v>
       </c>
       <c r="J2">
         <f>$I2*2</f>
-        <v>2.5000000000000004</v>
+        <v>1.2999999999999996</v>
       </c>
       <c r="O2" s="1">
         <v>2</v>
@@ -45081,7 +45081,7 @@
       </c>
       <c r="Q2" s="3">
         <f>$Q$27/1000</f>
-        <v>2.5000000000000001E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -45091,11 +45091,11 @@
       </c>
       <c r="U2">
         <f>(S2*2+($Q$5+$Q$1+$Q$2)*1000)/2</f>
-        <v>1</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="V2">
         <f>$U2*2</f>
-        <v>2</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="W2">
         <f t="shared" ref="W2:W33" si="1">T2+6</f>
@@ -45105,43 +45105,43 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A55" si="2">A2+0.002</f>
-        <v>4.5000000000000005E-3</v>
+        <v>3.2999999999999995E-3</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B55" si="3">$A3/2-$Q$5/2-$Q$1-$Q$3+$Q$8</f>
-        <v>1.0000000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C55" si="4">$A3/2-$Q$5/2-$Q$2-$Q$4-$Q$8</f>
-        <v>1.0000000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D55" si="5">$A3/2+$Q$5/2-$Q$1-$Q$4-$Q$8</f>
-        <v>2.4999999999999996E-3</v>
+        <v>2.0999999999999994E-3</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E55" si="6">$A3/2+$Q$5/2-$Q$2-$Q$3+$Q$8</f>
-        <v>2.4999999999999996E-3</v>
+        <v>2.0999999999999994E-3</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F55" si="7">$Q$24*(1/($Q$1)-1/($Q$5-$Q$1)-1/($Q$5-$Q$2)+1/($Q$2))</f>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G3" s="4">
         <f>$Q$25*(1/($B3)-1/($E3)-1/($D3)+1/($C3))</f>
-        <v>0.43881870320913424</v>
+        <v>0.38309569327781562</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>2.2500000000000004</v>
+        <v>1.6499999999999997</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J55" si="8">$I3*2</f>
-        <v>4.5000000000000009</v>
+        <v>3.2999999999999994</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K34" si="9">20*LOG10(G3/(F3))</f>
-        <v>-1.8688903127606076</v>
+        <v>-4.1750023649603909</v>
       </c>
       <c r="O3" s="1">
         <v>3</v>
@@ -45151,7 +45151,7 @@
       </c>
       <c r="Q3" s="3">
         <f>$Q$27/1000</f>
-        <v>2.5000000000000001E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="S3">
         <v>1.0074148148148101</v>
@@ -45161,11 +45161,11 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U56" si="10">(S3*2+($Q$5+$Q$1+$Q$2)*1000)/2</f>
-        <v>2.0074148148148101</v>
+        <v>1.60741481481481</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V56" si="11">$U3*2</f>
-        <v>4.0148296296296202</v>
+        <v>3.2148296296296199</v>
       </c>
       <c r="W3">
         <f t="shared" si="1"/>
@@ -45175,43 +45175,43 @@
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="2"/>
-        <v>6.5000000000000006E-3</v>
+        <v>5.2999999999999992E-3</v>
       </c>
       <c r="B4">
         <f t="shared" si="3"/>
-        <v>2E-3</v>
+        <v>1.9999999999999992E-3</v>
       </c>
       <c r="C4">
         <f t="shared" si="4"/>
-        <v>2E-3</v>
+        <v>1.9999999999999992E-3</v>
       </c>
       <c r="D4">
         <f t="shared" si="5"/>
-        <v>3.4999999999999996E-3</v>
+        <v>3.0999999999999995E-3</v>
       </c>
       <c r="E4">
         <f t="shared" si="6"/>
-        <v>3.4999999999999996E-3</v>
+        <v>3.0999999999999995E-3</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G55" si="12">$Q$25*(1/($B4)-1/($E4)-1/($D4)+1/($C4))</f>
-        <v>0.15672096543183373</v>
+        <v>0.12975821869087323</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>3.2500000000000004</v>
+        <v>2.6499999999999995</v>
       </c>
       <c r="J4">
         <f t="shared" si="8"/>
-        <v>6.5000000000000009</v>
+        <v>5.2999999999999989</v>
       </c>
       <c r="K4">
         <f t="shared" si="9"/>
-        <v>-10.812050939604989</v>
+        <v>-13.57845026024707</v>
       </c>
       <c r="O4" s="1">
         <v>4</v>
@@ -45221,7 +45221,7 @@
       </c>
       <c r="Q4" s="3">
         <f>$Q$27/1000</f>
-        <v>2.5000000000000001E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="S4">
         <v>2.01482962962963</v>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="U4">
         <f t="shared" si="10"/>
-        <v>3.01482962962963</v>
+        <v>2.6148296296296296</v>
       </c>
       <c r="V4">
         <f t="shared" si="11"/>
-        <v>6.0296592592592599</v>
+        <v>5.2296592592592592</v>
       </c>
       <c r="W4">
         <f t="shared" si="1"/>
@@ -45245,43 +45245,43 @@
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="2"/>
-        <v>8.5000000000000006E-3</v>
+        <v>7.2999999999999992E-3</v>
       </c>
       <c r="B5">
         <f t="shared" si="3"/>
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999992E-3</v>
       </c>
       <c r="C5">
         <f t="shared" si="4"/>
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999992E-3</v>
       </c>
       <c r="D5">
         <f t="shared" si="5"/>
-        <v>4.4999999999999997E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="E5">
         <f t="shared" si="6"/>
-        <v>4.4999999999999997E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="12"/>
-        <v>8.1262722816506358E-2</v>
+        <v>6.5406581779139369E-2</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>3.6499999999999995</v>
       </c>
       <c r="J5">
         <f t="shared" si="8"/>
-        <v>8.5</v>
+        <v>7.2999999999999989</v>
       </c>
       <c r="K5">
         <f t="shared" si="9"/>
-        <v>-16.516765509219976</v>
+        <v>-19.528718699069948</v>
       </c>
       <c r="O5" s="1">
         <v>5</v>
@@ -45291,7 +45291,7 @@
       </c>
       <c r="Q5" s="3">
         <f>$Q$26/1000+$Q$1+$Q$2</f>
-        <v>1.5E-3</v>
+        <v>1.0999999999999998E-3</v>
       </c>
       <c r="S5">
         <v>3.0222444444444401</v>
@@ -45301,11 +45301,11 @@
       </c>
       <c r="U5">
         <f t="shared" si="10"/>
-        <v>4.0222444444444401</v>
+        <v>3.6222444444444397</v>
       </c>
       <c r="V5">
         <f t="shared" si="11"/>
-        <v>8.0444888888888801</v>
+        <v>7.2444888888888794</v>
       </c>
       <c r="W5">
         <f t="shared" si="1"/>
@@ -45315,7 +45315,7 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="2"/>
-        <v>1.0500000000000001E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="B6">
         <f t="shared" si="3"/>
@@ -45327,31 +45327,31 @@
       </c>
       <c r="D6">
         <f t="shared" si="5"/>
-        <v>5.4999999999999997E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="E6">
         <f t="shared" si="6"/>
-        <v>5.4999999999999997E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="12"/>
-        <v>4.9865761728310712E-2</v>
+        <v>3.9436321366833983E-2</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>4.6499999999999995</v>
       </c>
       <c r="J6">
         <f t="shared" si="8"/>
-        <v>10.5</v>
+        <v>9.2999999999999989</v>
       </c>
       <c r="K6">
         <f t="shared" si="9"/>
-        <v>-20.758543755763981</v>
+        <v>-23.923219818799978</v>
       </c>
       <c r="O6" s="1">
         <v>6</v>
@@ -45371,11 +45371,11 @@
       </c>
       <c r="U6">
         <f t="shared" si="10"/>
-        <v>5.0296592592592599</v>
+        <v>4.6296592592592596</v>
       </c>
       <c r="V6">
         <f t="shared" si="11"/>
-        <v>10.05931851851852</v>
+        <v>9.2593185185185192</v>
       </c>
       <c r="W6">
         <f t="shared" si="1"/>
@@ -45385,7 +45385,7 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="2"/>
-        <v>1.2500000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="B7">
         <f t="shared" si="3"/>
@@ -45397,31 +45397,31 @@
       </c>
       <c r="D7">
         <f t="shared" si="5"/>
-        <v>6.4999999999999997E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="E7">
         <f t="shared" si="6"/>
-        <v>6.4999999999999997E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="12"/>
-        <v>3.3755284862241115E-2</v>
+        <v>2.6377080520767659E-2</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>6.25</v>
+        <v>5.6499999999999995</v>
       </c>
       <c r="J7">
         <f t="shared" si="8"/>
-        <v>12.5</v>
+        <v>11.299999999999999</v>
       </c>
       <c r="K7">
         <f t="shared" si="9"/>
-        <v>-24.147757358897337</v>
+        <v>-27.416613257217715</v>
       </c>
       <c r="O7" s="1">
         <v>7</v>
@@ -45431,7 +45431,7 @@
       </c>
       <c r="Q7" s="3">
         <f>$Q$6-$Q$3-$Q$4</f>
-        <v>0.1095</v>
+        <v>0.10990000000000001</v>
       </c>
       <c r="S7">
         <v>5.03707407407407</v>
@@ -45441,11 +45441,11 @@
       </c>
       <c r="U7">
         <f t="shared" si="10"/>
-        <v>6.03707407407407</v>
+        <v>5.6370740740740697</v>
       </c>
       <c r="V7">
         <f t="shared" si="11"/>
-        <v>12.07414814814814</v>
+        <v>11.274148148148139</v>
       </c>
       <c r="W7">
         <f t="shared" si="1"/>
@@ -45455,7 +45455,7 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="2"/>
-        <v>1.4500000000000001E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="B8">
         <f t="shared" si="3"/>
@@ -45467,31 +45467,31 @@
       </c>
       <c r="D8">
         <f t="shared" si="5"/>
-        <v>7.4999999999999997E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="E8">
         <f t="shared" si="6"/>
-        <v>7.4999999999999997E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="12"/>
-        <v>2.4378816844951898E-2</v>
+        <v>1.8884998964399369E-2</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>7.25</v>
+        <v>6.6499999999999995</v>
       </c>
       <c r="J8">
         <f t="shared" si="8"/>
-        <v>14.5</v>
+        <v>13.299999999999999</v>
       </c>
       <c r="K8">
         <f t="shared" si="9"/>
-        <v>-26.974340414826731</v>
+        <v>-30.318808452336377</v>
       </c>
       <c r="O8" s="1">
         <v>8</v>
@@ -45510,11 +45510,11 @@
       </c>
       <c r="U8">
         <f t="shared" si="10"/>
-        <v>7.0444888888888899</v>
+        <v>6.6444888888888896</v>
       </c>
       <c r="V8">
         <f t="shared" si="11"/>
-        <v>14.08897777777778</v>
+        <v>13.288977777777779</v>
       </c>
       <c r="W8">
         <f t="shared" si="1"/>
@@ -45524,7 +45524,7 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="2"/>
-        <v>1.6500000000000001E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="B9">
         <f t="shared" si="3"/>
@@ -45536,31 +45536,31 @@
       </c>
       <c r="D9">
         <f t="shared" si="5"/>
-        <v>8.5000000000000006E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="E9">
         <f t="shared" si="6"/>
-        <v>8.5000000000000006E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="12"/>
-        <v>1.8437760639039267E-2</v>
+        <v>1.4188729380659839E-2</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>8.25</v>
+        <v>7.6499999999999995</v>
       </c>
       <c r="J9">
         <f t="shared" si="8"/>
-        <v>16.5</v>
+        <v>15.299999999999999</v>
       </c>
       <c r="K9">
         <f t="shared" si="9"/>
-        <v>-29.40042945389084</v>
+        <v>-32.802277648140141</v>
       </c>
       <c r="O9" s="1">
         <v>9</v>
@@ -45570,7 +45570,7 @@
       </c>
       <c r="Q9" s="6">
         <f>$Q$6/2-$Q$5/2+$Q$8</f>
-        <v>5.425E-2</v>
+        <v>5.4449999999999998E-2</v>
       </c>
       <c r="S9">
         <v>7.0519037037037</v>
@@ -45580,11 +45580,11 @@
       </c>
       <c r="U9">
         <f t="shared" si="10"/>
-        <v>8.0519037037037009</v>
+        <v>7.6519037037036997</v>
       </c>
       <c r="V9">
         <f t="shared" si="11"/>
-        <v>16.103807407407402</v>
+        <v>15.303807407407399</v>
       </c>
       <c r="W9">
         <f t="shared" si="1"/>
@@ -45594,7 +45594,7 @@
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="2"/>
-        <v>1.8500000000000003E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="B10">
         <f t="shared" si="3"/>
@@ -45606,31 +45606,31 @@
       </c>
       <c r="D10">
         <f t="shared" si="5"/>
-        <v>9.5000000000000015E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="E10">
         <f t="shared" si="6"/>
-        <v>9.5000000000000015E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="12"/>
-        <v>1.4434825763458383E-2</v>
+        <v>1.1050837306090844E-2</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>9.2500000000000018</v>
+        <v>8.65</v>
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
-        <v>18.500000000000004</v>
+        <v>17.3</v>
       </c>
       <c r="K10">
         <f t="shared" si="9"/>
-        <v>-31.526361984935672</v>
+        <v>-34.97324405654274</v>
       </c>
       <c r="O10" s="1">
         <v>10</v>
@@ -45640,7 +45640,7 @@
       </c>
       <c r="Q10" s="6">
         <f>$Q$6/2-$Q$5/2-$Q$8</f>
-        <v>5.425E-2</v>
+        <v>5.4449999999999998E-2</v>
       </c>
       <c r="S10">
         <v>8.0593185185185199</v>
@@ -45650,11 +45650,11 @@
       </c>
       <c r="U10">
         <f t="shared" si="10"/>
-        <v>9.0593185185185199</v>
+        <v>8.6593185185185195</v>
       </c>
       <c r="V10">
         <f t="shared" si="11"/>
-        <v>18.11863703703704</v>
+        <v>17.318637037037039</v>
       </c>
       <c r="W10">
         <f t="shared" si="1"/>
@@ -45664,43 +45664,43 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="2"/>
-        <v>2.0500000000000004E-2</v>
+        <v>1.9299999999999998E-2</v>
       </c>
       <c r="B11">
         <f t="shared" si="3"/>
-        <v>9.0000000000000011E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
-        <v>9.0000000000000011E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D11">
         <f t="shared" si="5"/>
-        <v>1.0500000000000002E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="E11">
         <f t="shared" si="6"/>
-        <v>1.0500000000000002E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="12"/>
-        <v>1.1608960402358063E-2</v>
+        <v>8.8503955542729718E-3</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>10.250000000000002</v>
+        <v>9.6499999999999986</v>
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
-        <v>20.500000000000004</v>
+        <v>19.299999999999997</v>
       </c>
       <c r="K11">
         <f t="shared" si="9"/>
-        <v>-33.418726309505104</v>
+        <v>-36.901894134721353</v>
       </c>
       <c r="O11" s="1">
         <v>11</v>
@@ -45710,7 +45710,7 @@
       </c>
       <c r="Q11" s="6">
         <f>$Q$6/2+$Q$5/2-$Q$8</f>
-        <v>5.5750000000000001E-2</v>
+        <v>5.5550000000000002E-2</v>
       </c>
       <c r="S11">
         <v>9.06673333333333</v>
@@ -45720,11 +45720,11 @@
       </c>
       <c r="U11">
         <f t="shared" si="10"/>
-        <v>10.06673333333333</v>
+        <v>9.6667333333333296</v>
       </c>
       <c r="V11">
         <f t="shared" si="11"/>
-        <v>20.13346666666666</v>
+        <v>19.333466666666659</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
@@ -45734,43 +45734,43 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="2"/>
-        <v>2.2500000000000006E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="B12">
         <f t="shared" si="3"/>
-        <v>1.0000000000000002E-2</v>
+        <v>0.01</v>
       </c>
       <c r="C12">
         <f t="shared" si="4"/>
-        <v>1.0000000000000002E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D12">
         <f t="shared" si="5"/>
-        <v>1.1500000000000003E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="E12">
         <f t="shared" si="6"/>
-        <v>1.1500000000000003E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="12"/>
-        <v>9.5395370262855387E-3</v>
+        <v>7.2477563593100307E-3</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>11.250000000000004</v>
+        <v>10.65</v>
       </c>
       <c r="J12">
         <f t="shared" si="8"/>
-        <v>22.500000000000007</v>
+        <v>21.3</v>
       </c>
       <c r="K12">
         <f t="shared" si="9"/>
-        <v>-35.124046946392077</v>
+        <v>-38.637076046015146</v>
       </c>
       <c r="O12" s="1">
         <v>12</v>
@@ -45780,7 +45780,7 @@
       </c>
       <c r="Q12" s="6">
         <f>$Q$6/2+$Q$5/2+$Q$8</f>
-        <v>5.5750000000000001E-2</v>
+        <v>5.5550000000000002E-2</v>
       </c>
       <c r="S12">
         <v>10.074148148148099</v>
@@ -45790,11 +45790,11 @@
       </c>
       <c r="U12">
         <f t="shared" si="10"/>
-        <v>11.074148148148099</v>
+        <v>10.674148148148099</v>
       </c>
       <c r="V12">
         <f t="shared" si="11"/>
-        <v>22.148296296296198</v>
+        <v>21.348296296296198</v>
       </c>
       <c r="W12">
         <f t="shared" si="1"/>
@@ -45804,43 +45804,43 @@
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="2"/>
-        <v>2.4500000000000008E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="B13">
         <f t="shared" si="3"/>
-        <v>1.1000000000000003E-2</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
-        <v>1.1000000000000003E-2</v>
+        <v>1.1000000000000001E-2</v>
       </c>
       <c r="D13">
         <f t="shared" si="5"/>
-        <v>1.2500000000000004E-2</v>
+        <v>1.2100000000000001E-2</v>
       </c>
       <c r="E13">
         <f t="shared" si="6"/>
-        <v>1.2500000000000004E-2</v>
+        <v>1.2100000000000001E-2</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="12"/>
-        <v>7.9785218765297244E-3</v>
+        <v>6.0443347549467598E-3</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>12.250000000000004</v>
+        <v>11.65</v>
       </c>
       <c r="J13">
         <f t="shared" si="8"/>
-        <v>24.500000000000007</v>
+        <v>23.3</v>
       </c>
       <c r="K13">
         <f t="shared" si="9"/>
-        <v>-36.676144102645473</v>
+        <v>-40.214177579775495</v>
       </c>
       <c r="O13" s="1">
         <v>13</v>
@@ -45860,11 +45860,11 @@
       </c>
       <c r="U13">
         <f t="shared" si="10"/>
-        <v>12.081562962963</v>
+        <v>11.681562962963</v>
       </c>
       <c r="V13">
         <f t="shared" si="11"/>
-        <v>24.163125925926</v>
+        <v>23.363125925925999</v>
       </c>
       <c r="W13">
         <f t="shared" si="1"/>
@@ -45874,43 +45874,43 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
-        <v>2.650000000000001E-2</v>
+        <v>2.5300000000000003E-2</v>
       </c>
       <c r="B14">
         <f t="shared" si="3"/>
-        <v>1.2000000000000004E-2</v>
+        <v>1.2000000000000002E-2</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
-        <v>1.2000000000000004E-2</v>
+        <v>1.2000000000000002E-2</v>
       </c>
       <c r="D14">
         <f t="shared" si="5"/>
-        <v>1.3500000000000005E-2</v>
+        <v>1.3100000000000002E-2</v>
       </c>
       <c r="E14">
         <f t="shared" si="6"/>
-        <v>1.3500000000000005E-2</v>
+        <v>1.3100000000000002E-2</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="12"/>
-        <v>6.7718935680422029E-3</v>
+        <v>5.1176905590547836E-3</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>13.250000000000005</v>
+        <v>12.650000000000002</v>
       </c>
       <c r="J14">
         <f t="shared" si="8"/>
-        <v>26.500000000000011</v>
+        <v>25.300000000000004</v>
       </c>
       <c r="K14">
         <f t="shared" si="9"/>
-        <v>-38.100390430172467</v>
+        <v>-41.659667304349803</v>
       </c>
       <c r="O14" s="1">
         <v>14</v>
@@ -45920,7 +45920,7 @@
       </c>
       <c r="Q14" s="6">
         <f>$Q$9-$Q$1-$Q$3</f>
-        <v>5.3749999999999999E-2</v>
+        <v>5.4349999999999996E-2</v>
       </c>
       <c r="S14">
         <v>12.088977777777799</v>
@@ -45930,11 +45930,11 @@
       </c>
       <c r="U14">
         <f t="shared" si="10"/>
-        <v>13.088977777777799</v>
+        <v>12.688977777777799</v>
       </c>
       <c r="V14">
         <f t="shared" si="11"/>
-        <v>26.177955555555599</v>
+        <v>25.377955555555598</v>
       </c>
       <c r="W14">
         <f t="shared" si="1"/>
@@ -45944,43 +45944,43 @@
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="2"/>
-        <v>2.8500000000000011E-2</v>
+        <v>2.7300000000000005E-2</v>
       </c>
       <c r="B15">
         <f t="shared" si="3"/>
-        <v>1.3000000000000005E-2</v>
+        <v>1.3000000000000003E-2</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
-        <v>1.3000000000000005E-2</v>
+        <v>1.3000000000000003E-2</v>
       </c>
       <c r="D15">
         <f t="shared" si="5"/>
-        <v>1.4500000000000006E-2</v>
+        <v>1.4100000000000003E-2</v>
       </c>
       <c r="E15">
         <f t="shared" si="6"/>
-        <v>1.4500000000000006E-2</v>
+        <v>1.4100000000000003E-2</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="12"/>
-        <v>5.8198767003863911E-3</v>
+        <v>4.3889850293694077E-3</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>14.250000000000005</v>
+        <v>13.650000000000002</v>
       </c>
       <c r="J15">
         <f t="shared" si="8"/>
-        <v>28.500000000000011</v>
+        <v>27.300000000000004</v>
       </c>
       <c r="K15">
         <f t="shared" si="9"/>
-        <v>-39.416317230156096</v>
+        <v>-42.993865769526344</v>
       </c>
       <c r="O15" s="1">
         <v>15</v>
@@ -45990,7 +45990,7 @@
       </c>
       <c r="Q15" s="6">
         <f>$Q$10-$Q$2-$Q$4</f>
-        <v>5.3749999999999999E-2</v>
+        <v>5.4349999999999996E-2</v>
       </c>
       <c r="S15">
         <v>13.096392592592601</v>
@@ -46000,11 +46000,11 @@
       </c>
       <c r="U15">
         <f t="shared" si="10"/>
-        <v>14.096392592592601</v>
+        <v>13.6963925925926</v>
       </c>
       <c r="V15">
         <f t="shared" si="11"/>
-        <v>28.192785185185201</v>
+        <v>27.3927851851852</v>
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
@@ -46014,43 +46014,43 @@
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="2"/>
-        <v>3.0500000000000013E-2</v>
+        <v>2.9300000000000007E-2</v>
       </c>
       <c r="B16">
         <f t="shared" si="3"/>
-        <v>1.4000000000000005E-2</v>
+        <v>1.4000000000000004E-2</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
-        <v>1.4000000000000005E-2</v>
+        <v>1.4000000000000004E-2</v>
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
-        <v>1.5500000000000007E-2</v>
+        <v>1.5100000000000004E-2</v>
       </c>
       <c r="E16">
         <f t="shared" si="6"/>
-        <v>1.5500000000000007E-2</v>
+        <v>1.5100000000000004E-2</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="12"/>
-        <v>5.0555150139301218E-3</v>
+        <v>3.8055863570644012E-3</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>15.250000000000007</v>
+        <v>14.650000000000004</v>
       </c>
       <c r="J16">
         <f t="shared" si="8"/>
-        <v>30.500000000000014</v>
+        <v>29.300000000000008</v>
       </c>
       <c r="K16">
         <f t="shared" si="9"/>
-        <v>-40.639284816290441</v>
+        <v>-44.232716129710141</v>
       </c>
       <c r="O16" s="1">
         <v>16</v>
@@ -46060,7 +46060,7 @@
       </c>
       <c r="Q16" s="6">
         <f>$Q$11-$Q$1-$Q$4</f>
-        <v>5.525E-2</v>
+        <v>5.5449999999999999E-2</v>
       </c>
       <c r="S16">
         <v>14.1038074074074</v>
@@ -46070,11 +46070,11 @@
       </c>
       <c r="U16">
         <f t="shared" si="10"/>
-        <v>15.1038074074074</v>
+        <v>14.7038074074074</v>
       </c>
       <c r="V16">
         <f t="shared" si="11"/>
-        <v>30.2076148148148</v>
+        <v>29.407614814814799</v>
       </c>
       <c r="W16">
         <f t="shared" si="1"/>
@@ -46084,43 +46084,43 @@
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="2"/>
-        <v>3.2500000000000015E-2</v>
+        <v>3.1300000000000008E-2</v>
       </c>
       <c r="B17">
         <f t="shared" si="3"/>
-        <v>1.5000000000000006E-2</v>
+        <v>1.5000000000000005E-2</v>
       </c>
       <c r="C17">
         <f t="shared" si="4"/>
-        <v>1.5000000000000006E-2</v>
+        <v>1.5000000000000005E-2</v>
       </c>
       <c r="D17">
         <f t="shared" si="5"/>
-        <v>1.6500000000000008E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="E17">
         <f t="shared" si="6"/>
-        <v>1.6500000000000008E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="12"/>
-        <v>4.4325121536276215E-3</v>
+        <v>3.3312668980679445E-3</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>16.250000000000007</v>
+        <v>15.650000000000004</v>
       </c>
       <c r="J17">
         <f t="shared" si="8"/>
-        <v>32.500000000000014</v>
+        <v>31.300000000000008</v>
       </c>
       <c r="K17">
         <f t="shared" si="9"/>
-        <v>-41.781594204711602</v>
+        <v>-45.388959172032671</v>
       </c>
       <c r="O17" s="1">
         <v>17</v>
@@ -46130,7 +46130,7 @@
       </c>
       <c r="Q17" s="6">
         <f>$Q$12-$Q$2-$Q$3</f>
-        <v>5.525E-2</v>
+        <v>5.5449999999999999E-2</v>
       </c>
       <c r="S17">
         <v>15.111222222222199</v>
@@ -46140,11 +46140,11 @@
       </c>
       <c r="U17">
         <f t="shared" si="10"/>
-        <v>16.111222222222199</v>
+        <v>15.711222222222199</v>
       </c>
       <c r="V17">
         <f t="shared" si="11"/>
-        <v>32.222444444444399</v>
+        <v>31.422444444444398</v>
       </c>
       <c r="W17">
         <f t="shared" si="1"/>
@@ -46154,43 +46154,43 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
-        <v>3.4500000000000017E-2</v>
+        <v>3.330000000000001E-2</v>
       </c>
       <c r="B18">
         <f t="shared" si="3"/>
-        <v>1.6000000000000007E-2</v>
+        <v>1.6000000000000004E-2</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
-        <v>1.6000000000000007E-2</v>
+        <v>1.6000000000000004E-2</v>
       </c>
       <c r="D18">
         <f t="shared" si="5"/>
-        <v>1.7500000000000009E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="E18">
         <f t="shared" si="6"/>
-        <v>1.7500000000000009E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="12"/>
-        <v>3.9180241357958407E-3</v>
+        <v>2.9404274703341022E-3</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>17.250000000000007</v>
+        <v>16.650000000000006</v>
       </c>
       <c r="J18">
         <f t="shared" si="8"/>
-        <v>34.500000000000014</v>
+        <v>33.300000000000011</v>
       </c>
       <c r="K18">
         <f t="shared" si="9"/>
-        <v>-42.853250766164244</v>
+        <v>-46.472938331243611</v>
       </c>
       <c r="O18" s="1">
         <v>18</v>
@@ -46209,11 +46209,11 @@
       </c>
       <c r="U18">
         <f t="shared" si="10"/>
-        <v>17.118637037037001</v>
+        <v>16.718637037037002</v>
       </c>
       <c r="V18">
         <f t="shared" si="11"/>
-        <v>34.237274074074001</v>
+        <v>33.437274074074004</v>
       </c>
       <c r="W18">
         <f t="shared" si="1"/>
@@ -46223,43 +46223,43 @@
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
-        <v>3.6500000000000019E-2</v>
+        <v>3.5300000000000012E-2</v>
       </c>
       <c r="B19">
         <f t="shared" si="3"/>
-        <v>1.7000000000000008E-2</v>
+        <v>1.7000000000000005E-2</v>
       </c>
       <c r="C19">
         <f t="shared" si="4"/>
-        <v>1.7000000000000008E-2</v>
+        <v>1.7000000000000005E-2</v>
       </c>
       <c r="D19">
         <f t="shared" si="5"/>
-        <v>1.8500000000000009E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="E19">
         <f t="shared" si="6"/>
-        <v>1.8500000000000009E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="12"/>
-        <v>3.4882249857641806E-3</v>
+        <v>2.614562742552522E-3</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>18.250000000000011</v>
+        <v>17.650000000000006</v>
       </c>
       <c r="J19">
         <f t="shared" si="8"/>
-        <v>36.500000000000021</v>
+        <v>35.300000000000011</v>
       </c>
       <c r="K19">
         <f t="shared" si="9"/>
-        <v>-43.862503134945612</v>
+        <v>-47.493166395231192</v>
       </c>
       <c r="O19" s="1">
         <v>19</v>
@@ -46278,11 +46278,11 @@
       </c>
       <c r="U19">
         <f t="shared" si="10"/>
-        <v>18.126051851851798</v>
+        <v>17.7260518518518</v>
       </c>
       <c r="V19">
         <f t="shared" si="11"/>
-        <v>36.252103703703597</v>
+        <v>35.4521037037036</v>
       </c>
       <c r="W19">
         <f t="shared" si="1"/>
@@ -46292,43 +46292,43 @@
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
-        <v>3.850000000000002E-2</v>
+        <v>3.7300000000000014E-2</v>
       </c>
       <c r="B20">
         <f t="shared" si="3"/>
-        <v>1.8000000000000009E-2</v>
+        <v>1.8000000000000006E-2</v>
       </c>
       <c r="C20">
         <f t="shared" si="4"/>
-        <v>1.8000000000000009E-2</v>
+        <v>1.8000000000000006E-2</v>
       </c>
       <c r="D20">
         <f t="shared" si="5"/>
-        <v>1.950000000000001E-2</v>
+        <v>1.9100000000000002E-2</v>
       </c>
       <c r="E20">
         <f t="shared" si="6"/>
-        <v>1.950000000000001E-2</v>
+        <v>1.9100000000000002E-2</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="12"/>
-        <v>3.1254893390963981E-3</v>
+        <v>2.3400260496899642E-3</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>19.250000000000011</v>
+        <v>18.650000000000006</v>
       </c>
       <c r="J20">
         <f t="shared" si="8"/>
-        <v>38.500000000000021</v>
+        <v>37.300000000000011</v>
       </c>
       <c r="K20">
         <f t="shared" si="9"/>
-        <v>-44.816232468636336</v>
+        <v>-48.456733917302714</v>
       </c>
       <c r="O20" s="1">
         <v>20</v>
@@ -46337,7 +46337,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="8">
-        <v>4.9460000000000003E-13</v>
+        <v>9.4599999999999996E-14</v>
       </c>
       <c r="S20">
         <v>18.133466666666699</v>
@@ -46347,11 +46347,11 @@
       </c>
       <c r="U20">
         <f t="shared" si="10"/>
-        <v>19.133466666666699</v>
+        <v>18.7334666666667</v>
       </c>
       <c r="V20">
         <f t="shared" si="11"/>
-        <v>38.266933333333398</v>
+        <v>37.466933333333401</v>
       </c>
       <c r="W20">
         <f t="shared" si="1"/>
@@ -46361,43 +46361,43 @@
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
-        <v>4.0500000000000022E-2</v>
+        <v>3.9300000000000015E-2</v>
       </c>
       <c r="B21">
         <f t="shared" si="3"/>
-        <v>1.900000000000001E-2</v>
+        <v>1.9000000000000006E-2</v>
       </c>
       <c r="C21">
         <f t="shared" si="4"/>
-        <v>1.900000000000001E-2</v>
+        <v>1.9000000000000006E-2</v>
       </c>
       <c r="D21">
         <f t="shared" si="5"/>
-        <v>2.0500000000000011E-2</v>
+        <v>2.0100000000000003E-2</v>
       </c>
       <c r="E21">
         <f t="shared" si="6"/>
-        <v>2.0500000000000011E-2</v>
+        <v>2.0100000000000003E-2</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="12"/>
-        <v>2.8165513684796839E-3</v>
+        <v>2.1065749041199564E-3</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>20.250000000000011</v>
+        <v>19.650000000000009</v>
       </c>
       <c r="J21">
         <f t="shared" si="8"/>
-        <v>40.500000000000021</v>
+        <v>39.300000000000018</v>
       </c>
       <c r="K21">
         <f t="shared" si="9"/>
-        <v>-45.72023937949151</v>
+        <v>-49.369609637748376</v>
       </c>
       <c r="O21" s="1">
         <v>21</v>
@@ -46416,11 +46416,11 @@
       </c>
       <c r="U21">
         <f t="shared" si="10"/>
-        <v>20.1408814814815</v>
+        <v>19.740881481481502</v>
       </c>
       <c r="V21">
         <f t="shared" si="11"/>
-        <v>40.281762962963001</v>
+        <v>39.481762962963003</v>
       </c>
       <c r="W21">
         <f t="shared" si="1"/>
@@ -46430,43 +46430,43 @@
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
-        <v>4.2500000000000024E-2</v>
+        <v>4.1300000000000017E-2</v>
       </c>
       <c r="B22">
         <f t="shared" si="3"/>
-        <v>2.0000000000000011E-2</v>
+        <v>2.0000000000000007E-2</v>
       </c>
       <c r="C22">
         <f t="shared" si="4"/>
-        <v>2.0000000000000011E-2</v>
+        <v>2.0000000000000007E-2</v>
       </c>
       <c r="D22">
         <f t="shared" si="5"/>
-        <v>2.1500000000000012E-2</v>
+        <v>2.1100000000000004E-2</v>
       </c>
       <c r="E22">
         <f t="shared" si="6"/>
-        <v>2.1500000000000012E-2</v>
+        <v>2.1100000000000004E-2</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="12"/>
-        <v>2.5512715302856621E-3</v>
+        <v>1.9064003693919631E-3</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>21.250000000000011</v>
+        <v>20.650000000000009</v>
       </c>
       <c r="J22">
         <f t="shared" si="8"/>
-        <v>42.500000000000021</v>
+        <v>41.300000000000018</v>
       </c>
       <c r="K22">
         <f t="shared" si="9"/>
-        <v>-46.57945925091159</v>
+        <v>-50.23686548951553</v>
       </c>
       <c r="O22" s="1">
         <v>22</v>
@@ -46485,11 +46485,11 @@
       </c>
       <c r="U22">
         <f t="shared" si="10"/>
-        <v>21.148296296296301</v>
+        <v>20.748296296296303</v>
       </c>
       <c r="V22">
         <f t="shared" si="11"/>
-        <v>42.296592592592603</v>
+        <v>41.496592592592606</v>
       </c>
       <c r="W22">
         <f t="shared" si="1"/>
@@ -46499,43 +46499,43 @@
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
-        <v>4.4500000000000026E-2</v>
+        <v>4.3300000000000019E-2</v>
       </c>
       <c r="B23">
         <f t="shared" si="3"/>
-        <v>2.1000000000000012E-2</v>
+        <v>2.1000000000000008E-2</v>
       </c>
       <c r="C23">
         <f t="shared" si="4"/>
-        <v>2.1000000000000012E-2</v>
+        <v>2.1000000000000008E-2</v>
       </c>
       <c r="D23">
         <f t="shared" si="5"/>
-        <v>2.2500000000000013E-2</v>
+        <v>2.2100000000000005E-2</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>2.2500000000000013E-2</v>
+        <v>2.2100000000000005E-2</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="12"/>
-        <v>2.3217920804716077E-3</v>
+        <v>1.7334646754652236E-3</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>22.250000000000014</v>
+        <v>21.650000000000009</v>
       </c>
       <c r="J23">
         <f t="shared" si="8"/>
-        <v>44.500000000000028</v>
+        <v>43.300000000000018</v>
       </c>
       <c r="K23">
         <f t="shared" si="9"/>
-        <v>-47.3981263962255</v>
+        <v>-51.062847838662634</v>
       </c>
       <c r="O23" s="1">
         <v>23</v>
@@ -46554,11 +46554,11 @@
       </c>
       <c r="U23">
         <f t="shared" si="10"/>
-        <v>22.155711111111099</v>
+        <v>21.755711111111101</v>
       </c>
       <c r="V23">
         <f t="shared" si="11"/>
-        <v>44.311422222222198</v>
+        <v>43.511422222222201</v>
       </c>
       <c r="W23">
         <f t="shared" si="1"/>
@@ -46568,43 +46568,43 @@
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
-        <v>4.6500000000000027E-2</v>
+        <v>4.5300000000000021E-2</v>
       </c>
       <c r="B24">
         <f t="shared" si="3"/>
-        <v>2.2000000000000013E-2</v>
+        <v>2.2000000000000009E-2</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
-        <v>2.2000000000000013E-2</v>
+        <v>2.2000000000000009E-2</v>
       </c>
       <c r="D24">
         <f t="shared" si="5"/>
-        <v>2.3500000000000014E-2</v>
+        <v>2.3100000000000006E-2</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>2.3500000000000014E-2</v>
+        <v>2.3100000000000006E-2</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="12"/>
-        <v>2.12194730758769E-3</v>
+        <v>1.5830400548670039E-3</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>23.250000000000014</v>
+        <v>22.650000000000009</v>
       </c>
       <c r="J24">
         <f t="shared" si="8"/>
-        <v>46.500000000000028</v>
+        <v>45.300000000000018</v>
       </c>
       <c r="K24">
         <f t="shared" si="9"/>
-        <v>-48.179901001198708</v>
+        <v>-51.851309684569031</v>
       </c>
       <c r="O24" s="1">
         <v>24</v>
@@ -46614,7 +46614,7 @@
       </c>
       <c r="Q24" s="8">
         <f>$Q$20*1/(4*PI()*$Q$22*$Q$23)</f>
-        <v>8.5025593349331629E-5</v>
+        <v>1.6262477013438682E-5</v>
       </c>
       <c r="S24">
         <v>22.1631259259259</v>
@@ -46624,11 +46624,11 @@
       </c>
       <c r="U24">
         <f t="shared" si="10"/>
-        <v>23.1631259259259</v>
+        <v>22.763125925925902</v>
       </c>
       <c r="V24">
         <f t="shared" si="11"/>
-        <v>46.326251851851801</v>
+        <v>45.526251851851804</v>
       </c>
       <c r="W24">
         <f t="shared" si="1"/>
@@ -46638,43 +46638,43 @@
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
-        <v>4.8500000000000029E-2</v>
+        <v>4.7300000000000023E-2</v>
       </c>
       <c r="B25">
         <f t="shared" si="3"/>
-        <v>2.3000000000000013E-2</v>
+        <v>2.300000000000001E-2</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
-        <v>2.3000000000000013E-2</v>
+        <v>2.300000000000001E-2</v>
       </c>
       <c r="D25">
         <f t="shared" si="5"/>
-        <v>2.4500000000000015E-2</v>
+        <v>2.4100000000000007E-2</v>
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>2.4500000000000015E-2</v>
+        <v>2.4100000000000007E-2</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="12"/>
-        <v>1.946844291078676E-3</v>
+        <v>1.4513818435565758E-3</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>24.250000000000014</v>
+        <v>23.650000000000013</v>
       </c>
       <c r="J25">
         <f t="shared" si="8"/>
-        <v>48.500000000000028</v>
+        <v>47.300000000000026</v>
       </c>
       <c r="K25">
         <f t="shared" si="9"/>
-        <v>-48.927968546962376</v>
+        <v>-52.605514042131261</v>
       </c>
       <c r="O25" s="1">
         <v>25</v>
@@ -46694,11 +46694,11 @@
       </c>
       <c r="U25">
         <f t="shared" si="10"/>
-        <v>24.170540740740702</v>
+        <v>23.770540740740703</v>
       </c>
       <c r="V25">
         <f t="shared" si="11"/>
-        <v>48.341081481481403</v>
+        <v>47.541081481481406</v>
       </c>
       <c r="W25">
         <f t="shared" si="1"/>
@@ -46708,43 +46708,43 @@
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>5.0500000000000031E-2</v>
+        <v>4.9300000000000024E-2</v>
       </c>
       <c r="B26">
         <f t="shared" si="3"/>
-        <v>2.4000000000000014E-2</v>
+        <v>2.4000000000000011E-2</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
-        <v>2.4000000000000014E-2</v>
+        <v>2.4000000000000011E-2</v>
       </c>
       <c r="D26">
         <f t="shared" si="5"/>
-        <v>2.5500000000000016E-2</v>
+        <v>2.5100000000000008E-2</v>
       </c>
       <c r="E26">
         <f t="shared" si="6"/>
-        <v>2.5500000000000016E-2</v>
+        <v>2.5100000000000008E-2</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="12"/>
-        <v>1.7925600621288185E-3</v>
+        <v>1.3354929546537384E-3</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>25.250000000000014</v>
+        <v>24.650000000000013</v>
       </c>
       <c r="J26">
         <f t="shared" si="8"/>
-        <v>50.500000000000028</v>
+        <v>49.300000000000026</v>
       </c>
       <c r="K26">
         <f t="shared" si="9"/>
-        <v>-49.645118582231063</v>
+        <v>-53.328315734134897</v>
       </c>
       <c r="O26" s="1">
         <v>26</v>
@@ -46763,11 +46763,11 @@
       </c>
       <c r="U26">
         <f t="shared" si="10"/>
-        <v>25.177955555555599</v>
+        <v>24.7779555555556</v>
       </c>
       <c r="V26">
         <f t="shared" si="11"/>
-        <v>50.355911111111197</v>
+        <v>49.5559111111112</v>
       </c>
       <c r="W26">
         <f t="shared" si="1"/>
@@ -46777,43 +46777,43 @@
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>5.2500000000000033E-2</v>
+        <v>5.1300000000000026E-2</v>
       </c>
       <c r="B27">
         <f t="shared" si="3"/>
-        <v>2.5000000000000015E-2</v>
+        <v>2.5000000000000012E-2</v>
       </c>
       <c r="C27">
         <f t="shared" si="4"/>
-        <v>2.5000000000000015E-2</v>
+        <v>2.5000000000000012E-2</v>
       </c>
       <c r="D27">
         <f t="shared" si="5"/>
-        <v>2.6500000000000017E-2</v>
+        <v>2.6100000000000009E-2</v>
       </c>
       <c r="E27">
         <f t="shared" si="6"/>
-        <v>2.6500000000000017E-2</v>
+        <v>2.6100000000000009E-2</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="12"/>
-        <v>1.6559196347514541E-3</v>
+        <v>1.2329516565262957E-3</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>26.250000000000018</v>
+        <v>25.650000000000013</v>
       </c>
       <c r="J27">
         <f t="shared" si="8"/>
-        <v>52.500000000000036</v>
+        <v>51.300000000000026</v>
       </c>
       <c r="K27">
         <f t="shared" si="9"/>
-        <v>-50.333807791496739</v>
+        <v>-54.022226790488432</v>
       </c>
       <c r="O27" s="1">
         <v>27</v>
@@ -46822,7 +46822,7 @@
         <v>31</v>
       </c>
       <c r="Q27" s="9">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="S27">
         <v>25.1853703703704</v>
@@ -46832,11 +46832,11 @@
       </c>
       <c r="U27">
         <f t="shared" si="10"/>
-        <v>26.1853703703704</v>
+        <v>25.785370370370401</v>
       </c>
       <c r="V27">
         <f t="shared" si="11"/>
-        <v>52.3707407407408</v>
+        <v>51.570740740740803</v>
       </c>
       <c r="W27">
         <f t="shared" si="1"/>
@@ -46846,43 +46846,43 @@
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>5.4500000000000035E-2</v>
+        <v>5.3300000000000028E-2</v>
       </c>
       <c r="B28">
         <f t="shared" si="3"/>
-        <v>2.6000000000000016E-2</v>
+        <v>2.6000000000000013E-2</v>
       </c>
       <c r="C28">
         <f t="shared" si="4"/>
-        <v>2.6000000000000016E-2</v>
+        <v>2.6000000000000013E-2</v>
       </c>
       <c r="D28">
         <f t="shared" si="5"/>
-        <v>2.7500000000000017E-2</v>
+        <v>2.7100000000000009E-2</v>
       </c>
       <c r="E28">
         <f t="shared" si="6"/>
-        <v>2.7500000000000017E-2</v>
+        <v>2.7100000000000009E-2</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="12"/>
-        <v>1.5343311301018701E-3</v>
+        <v>1.1417839283045866E-3</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>27.250000000000018</v>
+        <v>26.650000000000013</v>
       </c>
       <c r="J28">
         <f t="shared" si="8"/>
-        <v>54.500000000000036</v>
+        <v>53.300000000000026</v>
       </c>
       <c r="K28">
         <f t="shared" si="9"/>
-        <v>-50.996210975341455</v>
+        <v>-54.689469247186494</v>
       </c>
       <c r="S28">
         <v>26.192785185185201</v>
@@ -46892,11 +46892,11 @@
       </c>
       <c r="U28">
         <f t="shared" si="10"/>
-        <v>27.192785185185201</v>
+        <v>26.792785185185203</v>
       </c>
       <c r="V28">
         <f t="shared" si="11"/>
-        <v>54.385570370370402</v>
+        <v>53.585570370370405</v>
       </c>
       <c r="W28">
         <f t="shared" si="1"/>
@@ -46906,43 +46906,43 @@
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>5.6500000000000036E-2</v>
+        <v>5.530000000000003E-2</v>
       </c>
       <c r="B29">
         <f t="shared" si="3"/>
-        <v>2.7000000000000017E-2</v>
+        <v>2.7000000000000014E-2</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>2.7000000000000017E-2</v>
+        <v>2.7000000000000014E-2</v>
       </c>
       <c r="D29">
         <f t="shared" si="5"/>
-        <v>2.8500000000000018E-2</v>
+        <v>2.810000000000001E-2</v>
       </c>
       <c r="E29">
         <f t="shared" si="6"/>
-        <v>2.8500000000000018E-2</v>
+        <v>2.810000000000001E-2</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="12"/>
-        <v>1.4256618037983616E-3</v>
+        <v>1.0603676761347164E-3</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>28.250000000000018</v>
+        <v>27.650000000000016</v>
       </c>
       <c r="J29">
         <f t="shared" si="8"/>
-        <v>56.500000000000036</v>
+        <v>55.300000000000033</v>
       </c>
       <c r="K29">
         <f t="shared" si="9"/>
-        <v>-51.634262622669773</v>
+        <v>-55.332018151563389</v>
       </c>
       <c r="S29">
         <v>27.200199999999999</v>
@@ -46952,11 +46952,11 @@
       </c>
       <c r="U29">
         <f t="shared" si="10"/>
-        <v>28.200199999999999</v>
+        <v>27.8002</v>
       </c>
       <c r="V29">
         <f t="shared" si="11"/>
-        <v>56.400399999999998</v>
+        <v>55.6004</v>
       </c>
       <c r="W29">
         <f t="shared" si="1"/>
@@ -46966,43 +46966,43 @@
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>5.8500000000000038E-2</v>
+        <v>5.7300000000000031E-2</v>
       </c>
       <c r="B30">
         <f t="shared" si="3"/>
-        <v>2.8000000000000018E-2</v>
+        <v>2.8000000000000014E-2</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>2.8000000000000018E-2</v>
+        <v>2.8000000000000014E-2</v>
       </c>
       <c r="D30">
         <f t="shared" si="5"/>
-        <v>2.9500000000000019E-2</v>
+        <v>2.9100000000000011E-2</v>
       </c>
       <c r="E30">
         <f t="shared" si="6"/>
-        <v>2.9500000000000019E-2</v>
+        <v>2.9100000000000011E-2</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="12"/>
-        <v>1.3281437748460477E-3</v>
+        <v>9.873600342211711E-4</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>29.250000000000018</v>
+        <v>28.650000000000016</v>
       </c>
       <c r="J30">
         <f t="shared" si="8"/>
-        <v>58.500000000000036</v>
+        <v>57.300000000000033</v>
       </c>
       <c r="K30">
         <f t="shared" si="9"/>
-        <v>-52.249691085727498</v>
+        <v>-55.95163687684456</v>
       </c>
       <c r="S30">
         <v>28.2076148148148</v>
@@ -47012,11 +47012,11 @@
       </c>
       <c r="U30">
         <f t="shared" si="10"/>
-        <v>29.2076148148148</v>
+        <v>28.807614814814801</v>
       </c>
       <c r="V30">
         <f t="shared" si="11"/>
-        <v>58.4152296296296</v>
+        <v>57.615229629629603</v>
       </c>
       <c r="W30">
         <f t="shared" si="1"/>
@@ -47026,43 +47026,43 @@
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>6.050000000000004E-2</v>
+        <v>5.9300000000000033E-2</v>
       </c>
       <c r="B31">
         <f t="shared" si="3"/>
-        <v>2.9000000000000019E-2</v>
+        <v>2.9000000000000015E-2</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>2.9000000000000019E-2</v>
+        <v>2.9000000000000015E-2</v>
       </c>
       <c r="D31">
         <f t="shared" si="5"/>
-        <v>3.050000000000002E-2</v>
+        <v>3.0100000000000012E-2</v>
       </c>
       <c r="E31">
         <f t="shared" si="6"/>
-        <v>3.050000000000002E-2</v>
+        <v>3.0100000000000012E-2</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="12"/>
-        <v>1.240301591885625E-3</v>
+        <v>9.2164160371567322E-4</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>30.250000000000021</v>
+        <v>29.650000000000016</v>
       </c>
       <c r="J31">
         <f t="shared" si="8"/>
-        <v>60.500000000000043</v>
+        <v>59.300000000000033</v>
       </c>
       <c r="K31">
         <f t="shared" si="9"/>
-        <v>-52.8440468842347</v>
+        <v>-56.549906340138008</v>
       </c>
       <c r="N31" t="s">
         <v>42</v>
@@ -47075,11 +47075,11 @@
       </c>
       <c r="U31">
         <f t="shared" si="10"/>
-        <v>30.215029629629601</v>
+        <v>29.815029629629603</v>
       </c>
       <c r="V31">
         <f t="shared" si="11"/>
-        <v>60.430059259259203</v>
+        <v>59.630059259259205</v>
       </c>
       <c r="W31">
         <f t="shared" si="1"/>
@@ -47089,43 +47089,43 @@
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>6.2500000000000042E-2</v>
+        <v>6.1300000000000035E-2</v>
       </c>
       <c r="B32">
         <f t="shared" si="3"/>
-        <v>3.000000000000002E-2</v>
+        <v>3.0000000000000016E-2</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>3.000000000000002E-2</v>
+        <v>3.0000000000000016E-2</v>
       </c>
       <c r="D32">
         <f t="shared" si="5"/>
-        <v>3.1500000000000021E-2</v>
+        <v>3.1100000000000013E-2</v>
       </c>
       <c r="E32">
         <f t="shared" si="6"/>
-        <v>3.1500000000000021E-2</v>
+        <v>3.1100000000000013E-2</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="12"/>
-        <v>1.1608960402358065E-3</v>
+        <v>8.6227326461244208E-4</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>31.250000000000021</v>
+        <v>30.650000000000016</v>
       </c>
       <c r="J32">
         <f t="shared" si="8"/>
-        <v>62.500000000000043</v>
+        <v>61.300000000000033</v>
       </c>
       <c r="K32">
         <f t="shared" si="9"/>
-        <v>-53.418726309505104</v>
+        <v>-57.128249345212048</v>
       </c>
       <c r="S32">
         <v>30.222444444444399</v>
@@ -47135,11 +47135,11 @@
       </c>
       <c r="U32">
         <f t="shared" si="10"/>
-        <v>31.222444444444399</v>
+        <v>30.8224444444444</v>
       </c>
       <c r="V32">
         <f t="shared" si="11"/>
-        <v>62.444888888888798</v>
+        <v>61.644888888888801</v>
       </c>
       <c r="W32">
         <f t="shared" si="1"/>
@@ -47149,43 +47149,43 @@
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>6.4500000000000043E-2</v>
+        <v>6.3300000000000037E-2</v>
       </c>
       <c r="B33">
         <f t="shared" si="3"/>
-        <v>3.1000000000000021E-2</v>
+        <v>3.1000000000000017E-2</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>3.1000000000000021E-2</v>
+        <v>3.1000000000000017E-2</v>
       </c>
       <c r="D33">
         <f t="shared" si="5"/>
-        <v>3.2500000000000022E-2</v>
+        <v>3.2100000000000017E-2</v>
       </c>
       <c r="E33">
         <f t="shared" si="6"/>
-        <v>3.2500000000000022E-2</v>
+        <v>3.2100000000000017E-2</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="12"/>
-        <v>1.0888801568464865E-3</v>
+        <v>8.0846242174998923E-4</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>32.250000000000021</v>
+        <v>31.65000000000002</v>
       </c>
       <c r="J33">
         <f t="shared" si="8"/>
-        <v>64.500000000000043</v>
+        <v>63.30000000000004</v>
       </c>
       <c r="K33">
         <f t="shared" si="9"/>
-        <v>-53.974991235582799</v>
+        <v>-57.687950995064881</v>
       </c>
       <c r="N33" t="s">
         <v>43</v>
@@ -47198,11 +47198,11 @@
       </c>
       <c r="U33">
         <f t="shared" si="10"/>
-        <v>32.2298592592593</v>
+        <v>31.829859259259301</v>
       </c>
       <c r="V33">
         <f t="shared" si="11"/>
-        <v>64.459718518518599</v>
+        <v>63.659718518518602</v>
       </c>
       <c r="W33">
         <f t="shared" si="1"/>
@@ -47212,43 +47212,43 @@
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="2"/>
-        <v>6.6500000000000045E-2</v>
+        <v>6.5300000000000039E-2</v>
       </c>
       <c r="B34">
         <f t="shared" si="3"/>
-        <v>3.2000000000000021E-2</v>
+        <v>3.2000000000000015E-2</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>3.2000000000000021E-2</v>
+        <v>3.2000000000000015E-2</v>
       </c>
       <c r="D34">
         <f t="shared" si="5"/>
-        <v>3.3500000000000023E-2</v>
+        <v>3.3100000000000018E-2</v>
       </c>
       <c r="E34">
         <f t="shared" si="6"/>
-        <v>3.3500000000000023E-2</v>
+        <v>3.3100000000000018E-2</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="12"/>
-        <v>1.0233645130810032E-3</v>
+        <v>7.5953640094733187E-4</v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:I55" si="13">A34*1000/2</f>
-        <v>33.250000000000021</v>
+        <v>32.65000000000002</v>
       </c>
       <c r="J34">
         <f t="shared" si="8"/>
-        <v>66.500000000000043</v>
+        <v>65.30000000000004</v>
       </c>
       <c r="K34">
         <f t="shared" si="9"/>
-        <v>-54.513985846454879</v>
+        <v>-58.230175912194483</v>
       </c>
       <c r="N34" t="s">
         <v>44</v>
@@ -47261,11 +47261,11 @@
       </c>
       <c r="U34">
         <f t="shared" si="10"/>
-        <v>33.237274074074101</v>
+        <v>32.837274074074102</v>
       </c>
       <c r="V34">
         <f t="shared" si="11"/>
-        <v>66.474548148148202</v>
+        <v>65.674548148148205</v>
       </c>
       <c r="W34">
         <f t="shared" ref="W34:W56" si="14">T34+6</f>
@@ -47275,43 +47275,43 @@
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="2"/>
-        <v>6.8500000000000047E-2</v>
+        <v>6.730000000000004E-2</v>
       </c>
       <c r="B35">
         <f t="shared" si="3"/>
-        <v>3.3000000000000022E-2</v>
+        <v>3.3000000000000015E-2</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>3.3000000000000022E-2</v>
+        <v>3.3000000000000015E-2</v>
       </c>
       <c r="D35">
         <f t="shared" si="5"/>
-        <v>3.4500000000000024E-2</v>
+        <v>3.4100000000000019E-2</v>
       </c>
       <c r="E35">
         <f t="shared" si="6"/>
-        <v>3.4500000000000024E-2</v>
+        <v>3.4100000000000019E-2</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="12"/>
-        <v>9.6358959861470061E-4</v>
+        <v>7.14921315101231E-4</v>
       </c>
       <c r="I35">
         <f t="shared" si="13"/>
-        <v>34.250000000000021</v>
+        <v>33.65000000000002</v>
       </c>
       <c r="J35">
         <f t="shared" si="8"/>
-        <v>68.500000000000043</v>
+        <v>67.30000000000004</v>
       </c>
       <c r="K35">
         <f t="shared" ref="K35:K55" si="15">20*LOG10(G35/(F35))</f>
-        <v>-55.036750838343082</v>
+        <v>-58.755982847689687</v>
       </c>
       <c r="N35" t="s">
         <v>45</v>
@@ -47324,11 +47324,11 @@
       </c>
       <c r="U35">
         <f t="shared" si="10"/>
-        <v>34.244688888888902</v>
+        <v>33.844688888888903</v>
       </c>
       <c r="V35">
         <f t="shared" si="11"/>
-        <v>68.489377777777804</v>
+        <v>67.689377777777807</v>
       </c>
       <c r="W35">
         <f t="shared" si="14"/>
@@ -47338,43 +47338,43 @@
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="2"/>
-        <v>7.0500000000000049E-2</v>
+        <v>6.9300000000000042E-2</v>
       </c>
       <c r="B36">
         <f t="shared" si="3"/>
-        <v>3.4000000000000023E-2</v>
+        <v>3.4000000000000016E-2</v>
       </c>
       <c r="C36">
         <f t="shared" si="4"/>
-        <v>3.4000000000000023E-2</v>
+        <v>3.4000000000000016E-2</v>
       </c>
       <c r="D36">
         <f t="shared" si="5"/>
-        <v>3.5500000000000025E-2</v>
+        <v>3.510000000000002E-2</v>
       </c>
       <c r="E36">
         <f t="shared" si="6"/>
-        <v>3.5500000000000025E-2</v>
+        <v>3.510000000000002E-2</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="12"/>
-        <v>9.0890369347376677E-4</v>
+        <v>6.7412515156981088E-4</v>
       </c>
       <c r="I36">
         <f t="shared" si="13"/>
-        <v>35.250000000000021</v>
+        <v>34.65000000000002</v>
       </c>
       <c r="J36">
         <f t="shared" si="8"/>
-        <v>70.500000000000043</v>
+        <v>69.30000000000004</v>
       </c>
       <c r="K36">
         <f t="shared" si="15"/>
-        <v>-55.544235541266829</v>
+        <v>-59.266337140443596</v>
       </c>
       <c r="S36">
         <v>34.252103703703703</v>
@@ -47384,11 +47384,11 @@
       </c>
       <c r="U36">
         <f t="shared" si="10"/>
-        <v>35.252103703703703</v>
+        <v>34.852103703703705</v>
       </c>
       <c r="V36">
         <f t="shared" si="11"/>
-        <v>70.504207407407407</v>
+        <v>69.704207407407409</v>
       </c>
       <c r="W36">
         <f t="shared" si="14"/>
@@ -47398,43 +47398,43 @@
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="2"/>
-        <v>7.2500000000000051E-2</v>
+        <v>7.1300000000000044E-2</v>
       </c>
       <c r="B37">
         <f t="shared" si="3"/>
-        <v>3.5000000000000024E-2</v>
+        <v>3.5000000000000017E-2</v>
       </c>
       <c r="C37">
         <f t="shared" si="4"/>
-        <v>3.5000000000000024E-2</v>
+        <v>3.5000000000000017E-2</v>
       </c>
       <c r="D37">
         <f t="shared" si="5"/>
-        <v>3.6500000000000025E-2</v>
+        <v>3.6100000000000021E-2</v>
       </c>
       <c r="E37">
         <f t="shared" si="6"/>
-        <v>3.6500000000000025E-2</v>
+        <v>3.6100000000000021E-2</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="12"/>
-        <v>8.5874501606484125E-4</v>
+        <v>6.3672414395205066E-4</v>
       </c>
       <c r="I37">
         <f t="shared" si="13"/>
-        <v>36.250000000000028</v>
+        <v>35.65000000000002</v>
       </c>
       <c r="J37">
         <f t="shared" si="8"/>
-        <v>72.500000000000057</v>
+        <v>71.30000000000004</v>
       </c>
       <c r="K37">
         <f t="shared" si="15"/>
-        <v>-56.037308315454872</v>
+        <v>-59.762121395400641</v>
       </c>
       <c r="S37">
         <v>35.259518518518497</v>
@@ -47444,11 +47444,11 @@
       </c>
       <c r="U37">
         <f t="shared" si="10"/>
-        <v>36.259518518518497</v>
+        <v>35.859518518518499</v>
       </c>
       <c r="V37">
         <f t="shared" si="11"/>
-        <v>72.519037037036995</v>
+        <v>71.719037037036998</v>
       </c>
       <c r="W37">
         <f t="shared" si="14"/>
@@ -47458,43 +47458,43 @@
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
-        <v>7.4500000000000052E-2</v>
+        <v>7.3300000000000046E-2</v>
       </c>
       <c r="B38">
         <f t="shared" si="3"/>
-        <v>3.6000000000000025E-2</v>
+        <v>3.6000000000000018E-2</v>
       </c>
       <c r="C38">
         <f t="shared" si="4"/>
-        <v>3.6000000000000025E-2</v>
+        <v>3.6000000000000018E-2</v>
       </c>
       <c r="D38">
         <f t="shared" si="5"/>
-        <v>3.7500000000000026E-2</v>
+        <v>3.7100000000000022E-2</v>
       </c>
       <c r="E38">
         <f t="shared" si="6"/>
-        <v>3.7500000000000026E-2</v>
+        <v>3.7100000000000022E-2</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="12"/>
-        <v>8.1262722816506346E-4</v>
+        <v>6.0235171899027757E-4</v>
       </c>
       <c r="I38">
         <f t="shared" si="13"/>
-        <v>37.250000000000028</v>
+        <v>36.65000000000002</v>
       </c>
       <c r="J38">
         <f t="shared" si="8"/>
-        <v>74.500000000000057</v>
+        <v>73.30000000000004</v>
       </c>
       <c r="K38">
         <f t="shared" si="15"/>
-        <v>-56.516765509219979</v>
+        <v>-60.244144677928652</v>
       </c>
       <c r="S38">
         <v>36.266933333333299</v>
@@ -47504,11 +47504,11 @@
       </c>
       <c r="U38">
         <f t="shared" si="10"/>
-        <v>37.266933333333299</v>
+        <v>36.8669333333333</v>
       </c>
       <c r="V38">
         <f t="shared" si="11"/>
-        <v>74.533866666666597</v>
+        <v>73.7338666666666</v>
       </c>
       <c r="W38">
         <f t="shared" si="14"/>
@@ -47518,43 +47518,43 @@
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
-        <v>7.6500000000000054E-2</v>
+        <v>7.5300000000000047E-2</v>
       </c>
       <c r="B39">
         <f t="shared" si="3"/>
-        <v>3.7000000000000026E-2</v>
+        <v>3.7000000000000019E-2</v>
       </c>
       <c r="C39">
         <f t="shared" si="4"/>
-        <v>3.7000000000000026E-2</v>
+        <v>3.7000000000000019E-2</v>
       </c>
       <c r="D39">
         <f t="shared" si="5"/>
-        <v>3.8500000000000027E-2</v>
+        <v>3.8100000000000023E-2</v>
       </c>
       <c r="E39">
         <f t="shared" si="6"/>
-        <v>3.8500000000000027E-2</v>
+        <v>3.8100000000000023E-2</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="12"/>
-        <v>7.7012759425962351E-4</v>
+        <v>5.7068947711102862E-4</v>
       </c>
       <c r="I39">
         <f t="shared" si="13"/>
-        <v>38.250000000000028</v>
+        <v>37.650000000000027</v>
       </c>
       <c r="J39">
         <f t="shared" si="8"/>
-        <v>76.500000000000057</v>
+        <v>75.300000000000054</v>
       </c>
       <c r="K39">
         <f t="shared" si="15"/>
-        <v>-56.983339210829783</v>
+        <v>-60.713150465134248</v>
       </c>
       <c r="S39">
         <v>37.2743481481481</v>
@@ -47564,11 +47564,11 @@
       </c>
       <c r="U39">
         <f t="shared" si="10"/>
-        <v>38.2743481481481</v>
+        <v>37.874348148148101</v>
       </c>
       <c r="V39">
         <f t="shared" si="11"/>
-        <v>76.5486962962962</v>
+        <v>75.748696296296202</v>
       </c>
       <c r="W39">
         <f t="shared" si="14"/>
@@ -47578,43 +47578,43 @@
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
-        <v>7.8500000000000056E-2</v>
+        <v>7.7300000000000049E-2</v>
       </c>
       <c r="B40">
         <f t="shared" si="3"/>
-        <v>3.8000000000000027E-2</v>
+        <v>3.800000000000002E-2</v>
       </c>
       <c r="C40">
         <f t="shared" si="4"/>
-        <v>3.8000000000000027E-2</v>
+        <v>3.800000000000002E-2</v>
       </c>
       <c r="D40">
         <f t="shared" si="5"/>
-        <v>3.9500000000000028E-2</v>
+        <v>3.9100000000000024E-2</v>
       </c>
       <c r="E40">
         <f t="shared" si="6"/>
-        <v>3.9500000000000028E-2</v>
+        <v>3.9100000000000024E-2</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="12"/>
-        <v>7.3087725384599219E-4</v>
+        <v>5.4145978993365028E-4</v>
       </c>
       <c r="I40">
         <f t="shared" si="13"/>
-        <v>39.250000000000028</v>
+        <v>38.650000000000027</v>
       </c>
       <c r="J40">
         <f t="shared" si="8"/>
-        <v>78.500000000000057</v>
+        <v>77.300000000000054</v>
       </c>
       <c r="K40">
         <f t="shared" si="15"/>
-        <v>-57.437703984185269</v>
+        <v>-61.169823550535497</v>
       </c>
       <c r="S40">
         <v>38.281762962963001</v>
@@ -47624,11 +47624,11 @@
       </c>
       <c r="U40">
         <f t="shared" si="10"/>
-        <v>39.281762962963001</v>
+        <v>38.881762962963002</v>
       </c>
       <c r="V40">
         <f t="shared" si="11"/>
-        <v>78.563525925926001</v>
+        <v>77.763525925926004</v>
       </c>
       <c r="W40">
         <f t="shared" si="14"/>
@@ -47638,43 +47638,43 @@
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
-        <v>8.0500000000000058E-2</v>
+        <v>7.9300000000000051E-2</v>
       </c>
       <c r="B41">
         <f t="shared" si="3"/>
-        <v>3.9000000000000028E-2</v>
+        <v>3.9000000000000021E-2</v>
       </c>
       <c r="C41">
         <f t="shared" si="4"/>
-        <v>3.9000000000000028E-2</v>
+        <v>3.9000000000000021E-2</v>
       </c>
       <c r="D41">
         <f t="shared" si="5"/>
-        <v>4.0500000000000029E-2</v>
+        <v>4.0100000000000025E-2</v>
       </c>
       <c r="E41">
         <f t="shared" si="6"/>
-        <v>4.0500000000000029E-2</v>
+        <v>4.0100000000000025E-2</v>
       </c>
       <c r="F41" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="12"/>
-        <v>6.9455318646586769E-4</v>
+        <v>5.1441969172160459E-4</v>
       </c>
       <c r="I41">
         <f t="shared" si="13"/>
-        <v>40.250000000000028</v>
+        <v>39.650000000000027</v>
       </c>
       <c r="J41">
         <f t="shared" si="8"/>
-        <v>80.500000000000057</v>
+        <v>79.300000000000054</v>
       </c>
       <c r="K41">
         <f t="shared" si="15"/>
-        <v>-57.880482744143194</v>
+        <v>-61.614796063215579</v>
       </c>
       <c r="S41">
         <v>39.289177777777802</v>
@@ -47684,11 +47684,11 @@
       </c>
       <c r="U41">
         <f t="shared" si="10"/>
-        <v>40.289177777777802</v>
+        <v>39.889177777777803</v>
       </c>
       <c r="V41">
         <f t="shared" si="11"/>
-        <v>80.578355555555603</v>
+        <v>79.778355555555606</v>
       </c>
       <c r="W41">
         <f t="shared" si="14"/>
@@ -47698,43 +47698,43 @@
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="2"/>
-        <v>8.2500000000000059E-2</v>
+        <v>8.1300000000000053E-2</v>
       </c>
       <c r="B42">
         <f t="shared" si="3"/>
-        <v>4.0000000000000029E-2</v>
+        <v>4.0000000000000022E-2</v>
       </c>
       <c r="C42">
         <f t="shared" si="4"/>
-        <v>4.0000000000000029E-2</v>
+        <v>4.0000000000000022E-2</v>
       </c>
       <c r="D42">
         <f t="shared" si="5"/>
-        <v>4.150000000000003E-2</v>
+        <v>4.1100000000000025E-2</v>
       </c>
       <c r="E42">
         <f t="shared" si="6"/>
-        <v>4.150000000000003E-2</v>
+        <v>4.1100000000000025E-2</v>
       </c>
       <c r="F42" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="12"/>
-        <v>6.6087154097761117E-4</v>
+        <v>4.8935581258115115E-4</v>
       </c>
       <c r="I42">
         <f t="shared" si="13"/>
-        <v>41.250000000000028</v>
+        <v>40.650000000000027</v>
       </c>
       <c r="J42">
         <f t="shared" si="8"/>
-        <v>82.500000000000057</v>
+        <v>81.300000000000054</v>
       </c>
       <c r="K42">
         <f t="shared" si="15"/>
-        <v>-58.31225190012097</v>
+        <v>-62.048652734362648</v>
       </c>
       <c r="S42">
         <v>40.296592592592603</v>
@@ -47744,11 +47744,11 @@
       </c>
       <c r="U42">
         <f t="shared" si="10"/>
-        <v>41.296592592592603</v>
+        <v>40.896592592592604</v>
       </c>
       <c r="V42">
         <f t="shared" si="11"/>
-        <v>82.593185185185206</v>
+        <v>81.793185185185209</v>
       </c>
       <c r="W42">
         <f t="shared" si="14"/>
@@ -47758,43 +47758,43 @@
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="2"/>
-        <v>8.4500000000000061E-2</v>
+        <v>8.3300000000000055E-2</v>
       </c>
       <c r="B43">
         <f t="shared" si="3"/>
-        <v>4.1000000000000029E-2</v>
+        <v>4.1000000000000023E-2</v>
       </c>
       <c r="C43">
         <f t="shared" si="4"/>
-        <v>4.1000000000000029E-2</v>
+        <v>4.1000000000000023E-2</v>
       </c>
       <c r="D43">
         <f t="shared" si="5"/>
-        <v>4.2500000000000031E-2</v>
+        <v>4.2100000000000026E-2</v>
       </c>
       <c r="E43">
         <f t="shared" si="6"/>
-        <v>4.2500000000000031E-2</v>
+        <v>4.2100000000000026E-2</v>
       </c>
       <c r="F43" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="12"/>
-        <v>6.2958207060133961E-4</v>
+        <v>4.6608015519576635E-4</v>
       </c>
       <c r="I43">
         <f t="shared" si="13"/>
-        <v>42.250000000000028</v>
+        <v>41.650000000000027</v>
       </c>
       <c r="J43">
         <f t="shared" si="8"/>
-        <v>84.500000000000057</v>
+        <v>83.300000000000054</v>
       </c>
       <c r="K43">
         <f t="shared" si="15"/>
-        <v>-58.733545874720804</v>
+        <v>-62.471935521390087</v>
       </c>
       <c r="S43">
         <v>41.304007407407397</v>
@@ -47804,11 +47804,11 @@
       </c>
       <c r="U43">
         <f t="shared" si="10"/>
-        <v>42.304007407407397</v>
+        <v>41.904007407407398</v>
       </c>
       <c r="V43">
         <f t="shared" si="11"/>
-        <v>84.608014814814794</v>
+        <v>83.808014814814797</v>
       </c>
       <c r="W43">
         <f t="shared" si="14"/>
@@ -47818,43 +47818,43 @@
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="2"/>
-        <v>8.6500000000000063E-2</v>
+        <v>8.5300000000000056E-2</v>
       </c>
       <c r="B44">
         <f t="shared" si="3"/>
-        <v>4.200000000000003E-2</v>
+        <v>4.2000000000000023E-2</v>
       </c>
       <c r="C44">
         <f t="shared" si="4"/>
-        <v>4.200000000000003E-2</v>
+        <v>4.2000000000000023E-2</v>
       </c>
       <c r="D44">
         <f t="shared" si="5"/>
-        <v>4.3500000000000032E-2</v>
+        <v>4.3100000000000027E-2</v>
       </c>
       <c r="E44">
         <f t="shared" si="6"/>
-        <v>4.3500000000000032E-2</v>
+        <v>4.3100000000000027E-2</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="12"/>
-        <v>6.0046346908748443E-4</v>
+        <v>4.444265583269341E-4</v>
       </c>
       <c r="I44">
         <f t="shared" si="13"/>
-        <v>43.250000000000028</v>
+        <v>42.650000000000027</v>
       </c>
       <c r="J44">
         <f t="shared" si="8"/>
-        <v>86.500000000000057</v>
+        <v>85.300000000000054</v>
       </c>
       <c r="K44">
         <f t="shared" si="15"/>
-        <v>-59.144861086370625</v>
+        <v>-62.885147681454612</v>
       </c>
       <c r="S44">
         <v>42.311422222222198</v>
@@ -47864,11 +47864,11 @@
       </c>
       <c r="U44">
         <f t="shared" si="10"/>
-        <v>43.311422222222198</v>
+        <v>42.9114222222222</v>
       </c>
       <c r="V44">
         <f t="shared" si="11"/>
-        <v>86.622844444444397</v>
+        <v>85.822844444444399</v>
       </c>
       <c r="W44">
         <f t="shared" si="14"/>
@@ -47878,43 +47878,43 @@
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="2"/>
-        <v>8.8500000000000065E-2</v>
+        <v>8.7300000000000058E-2</v>
       </c>
       <c r="B45">
         <f t="shared" si="3"/>
-        <v>4.3000000000000031E-2</v>
+        <v>4.3000000000000024E-2</v>
       </c>
       <c r="C45">
         <f t="shared" si="4"/>
-        <v>4.3000000000000031E-2</v>
+        <v>4.3000000000000024E-2</v>
       </c>
       <c r="D45">
         <f t="shared" si="5"/>
-        <v>4.4500000000000033E-2</v>
+        <v>4.4100000000000028E-2</v>
       </c>
       <c r="E45">
         <f t="shared" si="6"/>
-        <v>4.4500000000000033E-2</v>
+        <v>4.4100000000000028E-2</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="12"/>
-        <v>5.7331944500801512E-4</v>
+        <v>4.2424772234531317E-4</v>
       </c>
       <c r="I45">
         <f t="shared" si="13"/>
-        <v>44.250000000000036</v>
+        <v>43.650000000000027</v>
       </c>
       <c r="J45">
         <f t="shared" si="8"/>
-        <v>88.500000000000071</v>
+        <v>87.300000000000054</v>
       </c>
       <c r="K45">
         <f t="shared" si="15"/>
-        <v>-59.546659470530201</v>
+        <v>-63.28875737123046</v>
       </c>
       <c r="S45">
         <v>43.318837037037</v>
@@ -47924,11 +47924,11 @@
       </c>
       <c r="U45">
         <f t="shared" si="10"/>
-        <v>44.318837037037</v>
+        <v>43.918837037037001</v>
       </c>
       <c r="V45">
         <f t="shared" si="11"/>
-        <v>88.637674074073999</v>
+        <v>87.837674074074002</v>
       </c>
       <c r="W45">
         <f t="shared" si="14"/>
@@ -47938,43 +47938,43 @@
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="2"/>
-        <v>9.0500000000000067E-2</v>
+        <v>8.930000000000006E-2</v>
       </c>
       <c r="B46">
         <f t="shared" si="3"/>
-        <v>4.4000000000000032E-2</v>
+        <v>4.4000000000000025E-2</v>
       </c>
       <c r="C46">
         <f t="shared" si="4"/>
-        <v>4.4000000000000032E-2</v>
+        <v>4.4000000000000025E-2</v>
       </c>
       <c r="D46">
         <f t="shared" si="5"/>
-        <v>4.5500000000000033E-2</v>
+        <v>4.5100000000000029E-2</v>
       </c>
       <c r="E46">
         <f t="shared" si="6"/>
-        <v>4.5500000000000033E-2</v>
+        <v>4.5100000000000029E-2</v>
       </c>
       <c r="F46" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="12"/>
-        <v>5.4797540360781224E-4</v>
+        <v>4.0541269697813885E-4</v>
       </c>
       <c r="I46">
         <f t="shared" si="13"/>
-        <v>45.250000000000036</v>
+        <v>44.650000000000027</v>
       </c>
       <c r="J46">
         <f t="shared" si="8"/>
-        <v>90.500000000000071</v>
+        <v>89.300000000000054</v>
       </c>
       <c r="K46">
         <f t="shared" si="15"/>
-        <v>-59.939371602185815</v>
+        <v>-63.683200837564904</v>
       </c>
       <c r="S46">
         <v>44.3262518518519</v>
@@ -47984,11 +47984,11 @@
       </c>
       <c r="U46">
         <f t="shared" si="10"/>
-        <v>45.3262518518519</v>
+        <v>44.926251851851902</v>
       </c>
       <c r="V46">
         <f t="shared" si="11"/>
-        <v>90.6525037037038</v>
+        <v>89.852503703703803</v>
       </c>
       <c r="W46">
         <f t="shared" si="14"/>
@@ -47998,43 +47998,43 @@
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="2"/>
-        <v>9.2500000000000068E-2</v>
+        <v>9.1300000000000062E-2</v>
       </c>
       <c r="B47">
         <f t="shared" si="3"/>
-        <v>4.5000000000000033E-2</v>
+        <v>4.5000000000000026E-2</v>
       </c>
       <c r="C47">
         <f t="shared" si="4"/>
-        <v>4.5000000000000033E-2</v>
+        <v>4.5000000000000026E-2</v>
       </c>
       <c r="D47">
         <f t="shared" si="5"/>
-        <v>4.6500000000000034E-2</v>
+        <v>4.610000000000003E-2</v>
       </c>
       <c r="E47">
         <f t="shared" si="6"/>
-        <v>4.6500000000000034E-2</v>
+        <v>4.610000000000003E-2</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="12"/>
-        <v>5.2427563107423501E-4</v>
+        <v>3.8780475096814385E-4</v>
       </c>
       <c r="I47">
         <f t="shared" si="13"/>
-        <v>46.250000000000036</v>
+        <v>45.650000000000034</v>
       </c>
       <c r="J47">
         <f t="shared" si="8"/>
-        <v>92.500000000000071</v>
+        <v>91.300000000000068</v>
       </c>
       <c r="K47">
         <f t="shared" si="15"/>
-        <v>-60.323399472625795</v>
+        <v>-64.068885253581826</v>
       </c>
       <c r="S47">
         <v>45.333666666666701</v>
@@ -48044,11 +48044,11 @@
       </c>
       <c r="U47">
         <f t="shared" si="10"/>
-        <v>46.333666666666701</v>
+        <v>45.933666666666703</v>
       </c>
       <c r="V47">
         <f t="shared" si="11"/>
-        <v>92.667333333333403</v>
+        <v>91.867333333333406</v>
       </c>
       <c r="W47">
         <f t="shared" si="14"/>
@@ -48058,43 +48058,43 @@
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="2"/>
-        <v>9.450000000000007E-2</v>
+        <v>9.3300000000000063E-2</v>
       </c>
       <c r="B48">
         <f t="shared" si="3"/>
-        <v>4.6000000000000034E-2</v>
+        <v>4.6000000000000027E-2</v>
       </c>
       <c r="C48">
         <f t="shared" si="4"/>
-        <v>4.6000000000000034E-2</v>
+        <v>4.6000000000000027E-2</v>
       </c>
       <c r="D48">
         <f t="shared" si="5"/>
-        <v>4.7500000000000035E-2</v>
+        <v>4.7100000000000031E-2</v>
       </c>
       <c r="E48">
         <f t="shared" si="6"/>
-        <v>4.7500000000000035E-2</v>
+        <v>4.7100000000000031E-2</v>
       </c>
       <c r="F48" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="12"/>
-        <v>5.020808961202904E-4</v>
+        <v>3.7131955870184434E-4</v>
       </c>
       <c r="I48">
         <f t="shared" si="13"/>
-        <v>47.250000000000036</v>
+        <v>46.650000000000034</v>
       </c>
       <c r="J48">
         <f t="shared" si="8"/>
-        <v>94.500000000000071</v>
+        <v>93.300000000000068</v>
       </c>
       <c r="K48">
         <f t="shared" si="15"/>
-        <v>-60.699118965448676</v>
+        <v>-64.446191246491381</v>
       </c>
       <c r="S48">
         <v>46.341081481481503</v>
@@ -48104,11 +48104,11 @@
       </c>
       <c r="U48">
         <f t="shared" si="10"/>
-        <v>47.341081481481503</v>
+        <v>46.941081481481504</v>
       </c>
       <c r="V48">
         <f t="shared" si="11"/>
-        <v>94.682162962963005</v>
+        <v>93.882162962963008</v>
       </c>
       <c r="W48">
         <f t="shared" si="14"/>
@@ -48118,43 +48118,43 @@
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="2"/>
-        <v>9.6500000000000072E-2</v>
+        <v>9.5300000000000065E-2</v>
       </c>
       <c r="B49">
         <f t="shared" si="3"/>
-        <v>4.7000000000000035E-2</v>
+        <v>4.7000000000000028E-2</v>
       </c>
       <c r="C49">
         <f t="shared" si="4"/>
-        <v>4.7000000000000035E-2</v>
+        <v>4.7000000000000028E-2</v>
       </c>
       <c r="D49">
         <f t="shared" si="5"/>
-        <v>4.8500000000000036E-2</v>
+        <v>4.8100000000000032E-2</v>
       </c>
       <c r="E49">
         <f t="shared" si="6"/>
-        <v>4.8500000000000036E-2</v>
+        <v>4.8100000000000032E-2</v>
       </c>
       <c r="F49" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" si="12"/>
-        <v>4.8126639965906517E-4</v>
+        <v>3.5586365102995438E-4</v>
       </c>
       <c r="I49">
         <f t="shared" si="13"/>
-        <v>48.250000000000036</v>
+        <v>47.650000000000034</v>
       </c>
       <c r="J49">
         <f t="shared" si="8"/>
-        <v>96.500000000000071</v>
+        <v>95.300000000000068</v>
       </c>
       <c r="K49">
         <f t="shared" si="15"/>
-        <v>-61.066882070079451</v>
+        <v>-64.815475156472942</v>
       </c>
       <c r="S49">
         <v>47.348496296296297</v>
@@ -48164,11 +48164,11 @@
       </c>
       <c r="U49">
         <f t="shared" si="10"/>
-        <v>48.348496296296297</v>
+        <v>47.948496296296298</v>
       </c>
       <c r="V49">
         <f t="shared" si="11"/>
-        <v>96.696992592592593</v>
+        <v>95.896992592592596</v>
       </c>
       <c r="W49">
         <f t="shared" si="14"/>
@@ -48178,43 +48178,43 @@
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="2"/>
-        <v>9.8500000000000074E-2</v>
+        <v>9.7300000000000067E-2</v>
       </c>
       <c r="B50">
         <f t="shared" si="3"/>
-        <v>4.8000000000000036E-2</v>
+        <v>4.8000000000000029E-2</v>
       </c>
       <c r="C50">
         <f t="shared" si="4"/>
-        <v>4.8000000000000036E-2</v>
+        <v>4.8000000000000029E-2</v>
       </c>
       <c r="D50">
         <f t="shared" si="5"/>
-        <v>4.9500000000000037E-2</v>
+        <v>4.9100000000000033E-2</v>
       </c>
       <c r="E50">
         <f t="shared" si="6"/>
-        <v>4.9500000000000037E-2</v>
+        <v>4.9100000000000033E-2</v>
       </c>
       <c r="F50" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" si="12"/>
-        <v>4.6172001600287724E-4</v>
+        <v>3.4135308718746354E-4</v>
       </c>
       <c r="I50">
         <f t="shared" si="13"/>
-        <v>49.250000000000036</v>
+        <v>48.650000000000034</v>
       </c>
       <c r="J50">
         <f t="shared" si="8"/>
-        <v>98.500000000000071</v>
+        <v>97.300000000000068</v>
       </c>
       <c r="K50">
         <f t="shared" si="15"/>
-        <v>-61.427018865502973</v>
+        <v>-65.177071060253112</v>
       </c>
       <c r="S50">
         <v>48.355911111111098</v>
@@ -48224,11 +48224,11 @@
       </c>
       <c r="U50">
         <f t="shared" si="10"/>
-        <v>49.355911111111098</v>
+        <v>48.955911111111099</v>
       </c>
       <c r="V50">
         <f t="shared" si="11"/>
-        <v>98.711822222222196</v>
+        <v>97.911822222222199</v>
       </c>
       <c r="W50">
         <f t="shared" si="14"/>
@@ -48238,43 +48238,43 @@
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="2"/>
-        <v>0.10050000000000008</v>
+        <v>9.9300000000000069E-2</v>
       </c>
       <c r="B51">
         <f t="shared" si="3"/>
-        <v>4.9000000000000037E-2</v>
+        <v>4.900000000000003E-2</v>
       </c>
       <c r="C51">
         <f t="shared" si="4"/>
-        <v>4.9000000000000037E-2</v>
+        <v>4.900000000000003E-2</v>
       </c>
       <c r="D51">
         <f t="shared" si="5"/>
-        <v>5.0500000000000038E-2</v>
+        <v>5.0100000000000033E-2</v>
       </c>
       <c r="E51">
         <f t="shared" si="6"/>
-        <v>5.0500000000000038E-2</v>
+        <v>5.0100000000000033E-2</v>
       </c>
       <c r="F51" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G51" s="4">
         <f t="shared" si="12"/>
-        <v>4.4334077915653082E-4</v>
+        <v>3.277123124703311E-4</v>
       </c>
       <c r="I51">
         <f t="shared" si="13"/>
-        <v>50.250000000000036</v>
+        <v>49.650000000000034</v>
       </c>
       <c r="J51">
         <f t="shared" si="8"/>
-        <v>100.50000000000007</v>
+        <v>99.300000000000068</v>
       </c>
       <c r="K51">
         <f t="shared" si="15"/>
-        <v>-61.779839302263355</v>
+        <v>-65.531292588197161</v>
       </c>
       <c r="S51">
         <v>49.363325925925899</v>
@@ -48284,11 +48284,11 @@
       </c>
       <c r="U51">
         <f t="shared" si="10"/>
-        <v>50.363325925925899</v>
+        <v>49.963325925925901</v>
       </c>
       <c r="V51">
         <f t="shared" si="11"/>
-        <v>100.7266518518518</v>
+        <v>99.926651851851801</v>
       </c>
       <c r="W51">
         <f t="shared" si="14"/>
@@ -48298,43 +48298,43 @@
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="2"/>
-        <v>0.10250000000000008</v>
+        <v>0.10130000000000007</v>
       </c>
       <c r="B52">
         <f t="shared" si="3"/>
-        <v>5.0000000000000037E-2</v>
+        <v>5.0000000000000031E-2</v>
       </c>
       <c r="C52">
         <f t="shared" si="4"/>
-        <v>5.0000000000000037E-2</v>
+        <v>5.0000000000000031E-2</v>
       </c>
       <c r="D52">
         <f t="shared" si="5"/>
-        <v>5.1500000000000039E-2</v>
+        <v>5.1100000000000034E-2</v>
       </c>
       <c r="E52">
         <f t="shared" si="6"/>
-        <v>5.1500000000000039E-2</v>
+        <v>5.1100000000000034E-2</v>
       </c>
       <c r="F52" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G52" s="4">
         <f t="shared" si="12"/>
-        <v>4.2603757593119958E-4</v>
+        <v>3.1487317255711028E-4</v>
       </c>
       <c r="I52">
         <f t="shared" si="13"/>
-        <v>51.250000000000036</v>
+        <v>50.650000000000034</v>
       </c>
       <c r="J52">
         <f t="shared" si="8"/>
-        <v>102.50000000000007</v>
+        <v>101.30000000000007</v>
       </c>
       <c r="K52">
         <f t="shared" si="15"/>
-        <v>-62.125634806864021</v>
+        <v>-65.878434559696601</v>
       </c>
       <c r="S52">
         <v>50.3707407407407</v>
@@ -48344,11 +48344,11 @@
       </c>
       <c r="U52">
         <f t="shared" si="10"/>
-        <v>51.3707407407407</v>
+        <v>50.970740740740702</v>
       </c>
       <c r="V52">
         <f t="shared" si="11"/>
-        <v>102.7414814814814</v>
+        <v>101.9414814814814</v>
       </c>
       <c r="W52">
         <f t="shared" si="14"/>
@@ -48358,43 +48358,43 @@
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="2"/>
-        <v>0.10450000000000008</v>
+        <v>0.10330000000000007</v>
       </c>
       <c r="B53">
         <f t="shared" si="3"/>
-        <v>5.1000000000000038E-2</v>
+        <v>5.1000000000000031E-2</v>
       </c>
       <c r="C53">
         <f t="shared" si="4"/>
-        <v>5.1000000000000038E-2</v>
+        <v>5.1000000000000031E-2</v>
       </c>
       <c r="D53">
         <f t="shared" si="5"/>
-        <v>5.250000000000004E-2</v>
+        <v>5.2100000000000035E-2</v>
       </c>
       <c r="E53">
         <f t="shared" si="6"/>
-        <v>5.250000000000004E-2</v>
+        <v>5.2100000000000035E-2</v>
       </c>
       <c r="F53" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G53" s="4">
         <f t="shared" si="12"/>
-        <v>4.0972801420087099E-4</v>
+        <v>3.0277406039795873E-4</v>
       </c>
       <c r="I53">
         <f t="shared" si="13"/>
-        <v>52.250000000000043</v>
+        <v>51.650000000000034</v>
       </c>
       <c r="J53">
         <f t="shared" si="8"/>
-        <v>104.50000000000009</v>
+        <v>103.30000000000007</v>
       </c>
       <c r="K53">
         <f t="shared" si="15"/>
-        <v>-62.464679729397751</v>
+        <v>-66.218774458231181</v>
       </c>
       <c r="S53">
         <v>51.378155555555601</v>
@@ -48404,11 +48404,11 @@
       </c>
       <c r="U53">
         <f t="shared" si="10"/>
-        <v>52.378155555555601</v>
+        <v>51.978155555555603</v>
       </c>
       <c r="V53">
         <f t="shared" si="11"/>
-        <v>104.7563111111112</v>
+        <v>103.95631111111121</v>
       </c>
       <c r="W53">
         <f t="shared" si="14"/>
@@ -48418,43 +48418,43 @@
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="2"/>
-        <v>0.10650000000000008</v>
+        <v>0.10530000000000007</v>
       </c>
       <c r="B54">
         <f t="shared" si="3"/>
-        <v>5.2000000000000039E-2</v>
+        <v>5.2000000000000032E-2</v>
       </c>
       <c r="C54">
         <f t="shared" si="4"/>
-        <v>5.2000000000000039E-2</v>
+        <v>5.2000000000000032E-2</v>
       </c>
       <c r="D54">
         <f t="shared" si="5"/>
-        <v>5.3500000000000041E-2</v>
+        <v>5.3100000000000036E-2</v>
       </c>
       <c r="E54">
         <f t="shared" si="6"/>
-        <v>5.3500000000000041E-2</v>
+        <v>5.3100000000000036E-2</v>
       </c>
       <c r="F54" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G54" s="4">
         <f t="shared" si="12"/>
-        <v>3.9433743997945139E-4</v>
+        <v>2.9135917567847902E-4</v>
       </c>
       <c r="I54">
         <f t="shared" si="13"/>
-        <v>53.250000000000043</v>
+        <v>52.650000000000034</v>
       </c>
       <c r="J54">
         <f t="shared" si="8"/>
-        <v>106.50000000000009</v>
+        <v>105.30000000000007</v>
       </c>
       <c r="K54">
         <f t="shared" si="15"/>
-        <v>-62.797232652440428</v>
+        <v>-66.552573764607331</v>
       </c>
       <c r="S54">
         <v>52.385570370370402</v>
@@ -48464,11 +48464,11 @@
       </c>
       <c r="U54">
         <f t="shared" si="10"/>
-        <v>53.385570370370402</v>
+        <v>52.985570370370404</v>
       </c>
       <c r="V54">
         <f t="shared" si="11"/>
-        <v>106.7711407407408</v>
+        <v>105.97114074074081</v>
       </c>
       <c r="W54">
         <f t="shared" si="14"/>
@@ -48478,43 +48478,43 @@
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="2"/>
-        <v>0.10850000000000008</v>
+        <v>0.10730000000000008</v>
       </c>
       <c r="B55">
         <f t="shared" si="3"/>
-        <v>5.300000000000004E-2</v>
+        <v>5.3000000000000033E-2</v>
       </c>
       <c r="C55">
         <f t="shared" si="4"/>
-        <v>5.300000000000004E-2</v>
+        <v>5.3000000000000033E-2</v>
       </c>
       <c r="D55">
         <f t="shared" si="5"/>
-        <v>5.4500000000000041E-2</v>
+        <v>5.4100000000000037E-2</v>
       </c>
       <c r="E55">
         <f t="shared" si="6"/>
-        <v>5.4500000000000041E-2</v>
+        <v>5.4100000000000037E-2</v>
       </c>
       <c r="F55" s="4">
         <f t="shared" si="7"/>
-        <v>0.54416379743572241</v>
+        <v>0.61952293384528301</v>
       </c>
       <c r="G55" s="4">
         <f t="shared" si="12"/>
-        <v>3.7979808136501237E-4</v>
+        <v>2.8057788019509959E-4</v>
       </c>
       <c r="I55">
         <f t="shared" si="13"/>
-        <v>54.250000000000043</v>
+        <v>53.650000000000041</v>
       </c>
       <c r="J55">
         <f t="shared" si="8"/>
-        <v>108.50000000000009</v>
+        <v>107.30000000000008</v>
       </c>
       <c r="K55">
         <f t="shared" si="15"/>
-        <v>-63.123537576868465</v>
+        <v>-66.880079164429219</v>
       </c>
       <c r="S55">
         <v>53.392985185185204</v>
@@ -48524,11 +48524,11 @@
       </c>
       <c r="U55">
         <f t="shared" si="10"/>
-        <v>54.392985185185204</v>
+        <v>53.992985185185205</v>
       </c>
       <c r="V55">
         <f t="shared" si="11"/>
-        <v>108.78597037037041</v>
+        <v>107.98597037037041</v>
       </c>
       <c r="W55">
         <f t="shared" si="14"/>
@@ -48544,11 +48544,11 @@
       </c>
       <c r="U56">
         <f t="shared" si="10"/>
-        <v>55.400399999999998</v>
+        <v>55.000399999999999</v>
       </c>
       <c r="V56">
         <f t="shared" si="11"/>
-        <v>110.8008</v>
+        <v>110.0008</v>
       </c>
       <c r="W56">
         <f t="shared" si="14"/>
@@ -48785,18 +48785,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48819,6 +48819,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201BFB5D-2B70-4FD2-9E85-16D0C4056D0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B09E89-3425-4082-BE46-D7FCE7CB738D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -48833,12 +48841,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201BFB5D-2B70-4FD2-9E85-16D0C4056D0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>